--- a/北一基点.xlsx
+++ b/北一基点.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15896" uniqueCount="6529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17592" uniqueCount="7122">
   <si>
     <t>dInstal</t>
   </si>
@@ -19599,6 +19599,1785 @@
   </si>
   <si>
     <t>14.090000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-01 01:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-01 02:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 03:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 04:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-01 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-01 06:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-01 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 09:00:02</t>
+  </si>
+  <si>
+    <t>16.47999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-01 10:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-01 12:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-01 13:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-01 15:00:03</t>
+  </si>
+  <si>
+    <t>20.060000000000002</t>
+  </si>
+  <si>
+    <t>2023-07-01 17:00:03</t>
+  </si>
+  <si>
+    <t>19.460000000000008</t>
+  </si>
+  <si>
+    <t>2023-07-01 18:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-01 19:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-01 21:00:03</t>
+  </si>
+  <si>
+    <t>17.539999999999992</t>
+  </si>
+  <si>
+    <t>2023-07-01 22:00:02</t>
+  </si>
+  <si>
+    <t>17.159999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-01 23:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 01:00:02</t>
+  </si>
+  <si>
+    <t>16.639999999999986</t>
+  </si>
+  <si>
+    <t>2023-07-02 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 03:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 06:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 07:00:03</t>
+  </si>
+  <si>
+    <t>16.849999999999994</t>
+  </si>
+  <si>
+    <t>2023-07-02 08:00:03</t>
+  </si>
+  <si>
+    <t>17.930000000000007</t>
+  </si>
+  <si>
+    <t>2023-07-02 09:00:02</t>
+  </si>
+  <si>
+    <t>19.47999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-02 10:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 11:00:04</t>
+  </si>
+  <si>
+    <t>37.94</t>
+  </si>
+  <si>
+    <t>21.590000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-02 12:00:03</t>
+  </si>
+  <si>
+    <t>39.81</t>
+  </si>
+  <si>
+    <t>33.30000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-02 14:00:03</t>
+  </si>
+  <si>
+    <t>28.889999999999986</t>
+  </si>
+  <si>
+    <t>2023-07-02 16:00:03</t>
+  </si>
+  <si>
+    <t>41.19</t>
+  </si>
+  <si>
+    <t>2023-07-02 18:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 20:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-02 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-02 23:00:02</t>
+  </si>
+  <si>
+    <t>8.300000000000011</t>
+  </si>
+  <si>
+    <t>2023-07-03 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 01:00:03</t>
+  </si>
+  <si>
+    <t>15.490000000000009</t>
+  </si>
+  <si>
+    <t>2023-07-03 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 06:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 07:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-03 08:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-03 09:00:02</t>
+  </si>
+  <si>
+    <t>19.25999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-03 10:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 11:00:02</t>
+  </si>
+  <si>
+    <t>19.819999999999993</t>
+  </si>
+  <si>
+    <t>2023-07-03 12:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-03 14:00:02</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>29.74000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-03 15:00:03</t>
+  </si>
+  <si>
+    <t>29.72999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-03 16:00:03</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>2023-07-03 18:00:03</t>
+  </si>
+  <si>
+    <t>40.50</t>
+  </si>
+  <si>
+    <t>2023-07-03 19:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 20:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-03 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-04 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-04 01:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-04 03:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-04 05:00:03</t>
+  </si>
+  <si>
+    <t>16.44999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-04 06:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-04 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-04 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-04 09:00:03</t>
+  </si>
+  <si>
+    <t>19.69999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-04 10:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-04 11:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-04 12:00:08</t>
+  </si>
+  <si>
+    <t>38.31</t>
+  </si>
+  <si>
+    <t>21.22</t>
+  </si>
+  <si>
+    <t>2023-07-04 14:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-04 16:00:28</t>
+  </si>
+  <si>
+    <t>27.120000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-04 17:00:02</t>
+  </si>
+  <si>
+    <t>39.13</t>
+  </si>
+  <si>
+    <t>2023-07-04 18:00:02</t>
+  </si>
+  <si>
+    <t>38.19</t>
+  </si>
+  <si>
+    <t>2023-07-04 19:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-04 20:00:03</t>
+  </si>
+  <si>
+    <t>11.359999999999985</t>
+  </si>
+  <si>
+    <t>2023-07-04 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-05 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-05 02:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-05 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-05 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-05 08:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-05 10:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-05 11:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-05 12:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-05 14:00:12</t>
+  </si>
+  <si>
+    <t>2023-07-05 17:00:03</t>
+  </si>
+  <si>
+    <t>24.359999999999985</t>
+  </si>
+  <si>
+    <t>2023-07-05 18:00:02</t>
+  </si>
+  <si>
+    <t>24.789999999999992</t>
+  </si>
+  <si>
+    <t>2023-07-05 19:00:02</t>
+  </si>
+  <si>
+    <t>24.03</t>
+  </si>
+  <si>
+    <t>2023-07-05 20:00:02</t>
+  </si>
+  <si>
+    <t>22.919999999999987</t>
+  </si>
+  <si>
+    <t>2023-07-05 21:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-05 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-06 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-06 02:00:02</t>
+  </si>
+  <si>
+    <t>23.599999999999994</t>
+  </si>
+  <si>
+    <t>2023-07-06 04:00:03</t>
+  </si>
+  <si>
+    <t>23.590000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-06 05:00:03</t>
+  </si>
+  <si>
+    <t>23.329999999999984</t>
+  </si>
+  <si>
+    <t>2023-07-06 07:00:02</t>
+  </si>
+  <si>
+    <t>24.22999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-06 08:00:04</t>
+  </si>
+  <si>
+    <t>24.849999999999994</t>
+  </si>
+  <si>
+    <t>2023-07-06 09:00:03</t>
+  </si>
+  <si>
+    <t>26.039999999999992</t>
+  </si>
+  <si>
+    <t>2023-07-06 10:00:02</t>
+  </si>
+  <si>
+    <t>26.289999999999992</t>
+  </si>
+  <si>
+    <t>2023-07-06 11:00:03</t>
+  </si>
+  <si>
+    <t>32.69999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-06 12:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-06 13:00:03</t>
+  </si>
+  <si>
+    <t>37.31</t>
+  </si>
+  <si>
+    <t>21.310000000000002</t>
+  </si>
+  <si>
+    <t>2023-07-06 15:00:04</t>
+  </si>
+  <si>
+    <t>20.909999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-06 16:00:02</t>
+  </si>
+  <si>
+    <t>39.63</t>
+  </si>
+  <si>
+    <t>21.150000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-06 18:00:04</t>
+  </si>
+  <si>
+    <t>20.180000000000007</t>
+  </si>
+  <si>
+    <t>2023-07-06 20:00:03</t>
+  </si>
+  <si>
+    <t>18.419999999999987</t>
+  </si>
+  <si>
+    <t>2023-07-06 23:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-07 02:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-07 05:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-07 08:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-07 10:00:05</t>
+  </si>
+  <si>
+    <t>20.879999999999995</t>
+  </si>
+  <si>
+    <t>2023-07-07 13:00:04</t>
+  </si>
+  <si>
+    <t>27.419999999999987</t>
+  </si>
+  <si>
+    <t>2023-07-07 15:00:04</t>
+  </si>
+  <si>
+    <t>29.69999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-07 18:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-07 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-08 02:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-08 04:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-08 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-08 11:00:34</t>
+  </si>
+  <si>
+    <t>28.870000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-08 14:00:02</t>
+  </si>
+  <si>
+    <t>30.609999999999985</t>
+  </si>
+  <si>
+    <t>2023-07-08 16:00:04</t>
+  </si>
+  <si>
+    <t>29.599999999999994</t>
+  </si>
+  <si>
+    <t>2023-07-08 18:00:03</t>
+  </si>
+  <si>
+    <t>16.03</t>
+  </si>
+  <si>
+    <t>2023-07-08 21:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-08 23:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-09 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-09 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-09 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-09 11:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-09 14:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-09 17:00:03</t>
+  </si>
+  <si>
+    <t>17.710000000000008</t>
+  </si>
+  <si>
+    <t>2023-07-09 20:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-09 23:00:03</t>
+  </si>
+  <si>
+    <t>16.900000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-10 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-10 05:00:02</t>
+  </si>
+  <si>
+    <t>16.25999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-10 08:00:04</t>
+  </si>
+  <si>
+    <t>17.909999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-10 11:00:02</t>
+  </si>
+  <si>
+    <t>21.47</t>
+  </si>
+  <si>
+    <t>2023-07-10 14:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-10 17:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-10 20:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-10 23:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-11 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-11 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-11 08:00:04</t>
+  </si>
+  <si>
+    <t>30.710000000000008</t>
+  </si>
+  <si>
+    <t>2023-07-11 11:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-11 14:00:03</t>
+  </si>
+  <si>
+    <t>23.879999999999995</t>
+  </si>
+  <si>
+    <t>2023-07-11 17:00:02</t>
+  </si>
+  <si>
+    <t>20.680000000000007</t>
+  </si>
+  <si>
+    <t>2023-07-11 19:00:02</t>
+  </si>
+  <si>
+    <t>40.38</t>
+  </si>
+  <si>
+    <t>18.97999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-11 22:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-12 01:00:03</t>
+  </si>
+  <si>
+    <t>17.27000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-12 03:00:04</t>
+  </si>
+  <si>
+    <t>17.150000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-12 06:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-12 08:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-12 11:00:03</t>
+  </si>
+  <si>
+    <t>21.569999999999993</t>
+  </si>
+  <si>
+    <t>2023-07-12 14:00:03</t>
+  </si>
+  <si>
+    <t>32.579999999999984</t>
+  </si>
+  <si>
+    <t>2023-07-12 17:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-12 19:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-12 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-13 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-13 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-13 04:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-13 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-13 10:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-13 13:00:03</t>
+  </si>
+  <si>
+    <t>39.44</t>
+  </si>
+  <si>
+    <t>2023-07-13 16:00:05</t>
+  </si>
+  <si>
+    <t>25.859999999999985</t>
+  </si>
+  <si>
+    <t>2023-07-13 19:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-13 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-13 23:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-14 01:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-14 03:00:03</t>
+  </si>
+  <si>
+    <t>14.099999999999994</t>
+  </si>
+  <si>
+    <t>2023-07-14 05:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-14 08:00:03</t>
+  </si>
+  <si>
+    <t>26.78</t>
+  </si>
+  <si>
+    <t>2023-07-14 10:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-14 13:00:03</t>
+  </si>
+  <si>
+    <t>33.09</t>
+  </si>
+  <si>
+    <t>2023-07-14 18:00:21</t>
+  </si>
+  <si>
+    <t>43.88</t>
+  </si>
+  <si>
+    <t>2023-07-14 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-14 23:00:03</t>
+  </si>
+  <si>
+    <t>16.460000000000008</t>
+  </si>
+  <si>
+    <t>2023-07-15 01:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-15 03:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-15 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-15 08:00:02</t>
+  </si>
+  <si>
+    <t>18.22999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-15 11:00:03</t>
+  </si>
+  <si>
+    <t>21.28</t>
+  </si>
+  <si>
+    <t>2023-07-15 13:00:03</t>
+  </si>
+  <si>
+    <t>40.56</t>
+  </si>
+  <si>
+    <t>22.599999999999994</t>
+  </si>
+  <si>
+    <t>2023-07-15 15:00:03</t>
+  </si>
+  <si>
+    <t>29.319999999999993</t>
+  </si>
+  <si>
+    <t>2023-07-15 18:00:03</t>
+  </si>
+  <si>
+    <t>41.50</t>
+  </si>
+  <si>
+    <t>2023-07-15 20:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-15 22:00:04</t>
+  </si>
+  <si>
+    <t>15.819999999999993</t>
+  </si>
+  <si>
+    <t>2023-07-16 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-16 02:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-16 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-16 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-16 09:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-16 11:00:03</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>2023-07-16 13:00:03</t>
+  </si>
+  <si>
+    <t>21.849999999999994</t>
+  </si>
+  <si>
+    <t>2023-07-16 16:00:02</t>
+  </si>
+  <si>
+    <t>3.950000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-16 19:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-16 21:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-17 00:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-17 03:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-17 05:00:02</t>
+  </si>
+  <si>
+    <t>22.889999999999986</t>
+  </si>
+  <si>
+    <t>2023-07-17 08:00:03</t>
+  </si>
+  <si>
+    <t>27.289999999999992</t>
+  </si>
+  <si>
+    <t>2023-07-17 10:00:02</t>
+  </si>
+  <si>
+    <t>27.22999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-17 13:00:02</t>
+  </si>
+  <si>
+    <t>27.659999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-17 15:00:02</t>
+  </si>
+  <si>
+    <t>22.400000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-17 18:00:02</t>
+  </si>
+  <si>
+    <t>17.079999999999984</t>
+  </si>
+  <si>
+    <t>2023-07-17 21:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-17 23:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-18 01:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-18 03:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-18 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-18 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-18 10:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-18 12:00:03</t>
+  </si>
+  <si>
+    <t>30.78</t>
+  </si>
+  <si>
+    <t>2023-07-18 14:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-18 16:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-18 18:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-18 20:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-18 22:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-19 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-19 03:00:03</t>
+  </si>
+  <si>
+    <t>15.359999999999985</t>
+  </si>
+  <si>
+    <t>2023-07-19 05:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-19 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-19 10:00:04</t>
+  </si>
+  <si>
+    <t>19.310000000000002</t>
+  </si>
+  <si>
+    <t>2023-07-19 12:00:02</t>
+  </si>
+  <si>
+    <t>20.400000000000006</t>
+  </si>
+  <si>
+    <t>2023-07-19 14:00:03</t>
+  </si>
+  <si>
+    <t>29.77000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-19 16:00:03</t>
+  </si>
+  <si>
+    <t>41.25</t>
+  </si>
+  <si>
+    <t>2023-07-19 18:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-19 20:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-19 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-20 00:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-20 02:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-20 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-20 07:00:03</t>
+  </si>
+  <si>
+    <t>23.710000000000008</t>
+  </si>
+  <si>
+    <t>2023-07-20 09:00:02</t>
+  </si>
+  <si>
+    <t>25.659999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-20 11:00:05</t>
+  </si>
+  <si>
+    <t>25.930000000000007</t>
+  </si>
+  <si>
+    <t>2023-07-20 13:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-20 15:00:02</t>
+  </si>
+  <si>
+    <t>36.19</t>
+  </si>
+  <si>
+    <t>27.25999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-20 17:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-20 20:00:03</t>
+  </si>
+  <si>
+    <t>14.469999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-20 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-21 00:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-21 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-21 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-21 07:00:03</t>
+  </si>
+  <si>
+    <t>15.800000000000011</t>
+  </si>
+  <si>
+    <t>2023-07-21 09:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-21 11:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-21 13:00:02</t>
+  </si>
+  <si>
+    <t>30.669999999999987</t>
+  </si>
+  <si>
+    <t>2023-07-21 15:00:02</t>
+  </si>
+  <si>
+    <t>27.99000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-21 17:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-21 19:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-21 21:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-21 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-22 01:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-22 03:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-22 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-22 08:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-22 10:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-22 13:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-22 15:00:03</t>
+  </si>
+  <si>
+    <t>29.180000000000007</t>
+  </si>
+  <si>
+    <t>2023-07-22 17:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-22 20:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-22 23:00:03</t>
+  </si>
+  <si>
+    <t>4.8799999999999955</t>
+  </si>
+  <si>
+    <t>2023-07-23 01:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-23 03:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-23 05:00:04</t>
+  </si>
+  <si>
+    <t>10.939999999999998</t>
+  </si>
+  <si>
+    <t>2023-07-23 08:00:03</t>
+  </si>
+  <si>
+    <t>25.00999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-23 10:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-23 13:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-23 15:00:02</t>
+  </si>
+  <si>
+    <t>24.319999999999993</t>
+  </si>
+  <si>
+    <t>2023-07-23 18:00:03</t>
+  </si>
+  <si>
+    <t>23.25999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-23 20:00:05</t>
+  </si>
+  <si>
+    <t>18.53</t>
+  </si>
+  <si>
+    <t>2023-07-23 23:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-24 01:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-24 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-24 07:00:04</t>
+  </si>
+  <si>
+    <t>14.370000000000005</t>
+  </si>
+  <si>
+    <t>2023-07-24 09:00:03</t>
+  </si>
+  <si>
+    <t>25.53</t>
+  </si>
+  <si>
+    <t>2023-07-24 11:00:03</t>
+  </si>
+  <si>
+    <t>31.329999999999984</t>
+  </si>
+  <si>
+    <t>2023-07-24 13:00:03</t>
+  </si>
+  <si>
+    <t>31.05000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-24 15:00:04</t>
+  </si>
+  <si>
+    <t>28.359999999999985</t>
+  </si>
+  <si>
+    <t>2023-07-24 17:00:04</t>
+  </si>
+  <si>
+    <t>26.960000000000008</t>
+  </si>
+  <si>
+    <t>2023-07-24 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-24 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-25 01:00:04</t>
+  </si>
+  <si>
+    <t>15.340000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-25 03:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-25 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-25 08:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-25 10:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-25 14:00:05</t>
+  </si>
+  <si>
+    <t>22.329999999999984</t>
+  </si>
+  <si>
+    <t>2023-07-25 17:00:03</t>
+  </si>
+  <si>
+    <t>19.00999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-25 20:00:05</t>
+  </si>
+  <si>
+    <t>36.25</t>
+  </si>
+  <si>
+    <t>17.02000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-25 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-26 02:00:06</t>
+  </si>
+  <si>
+    <t>2023-07-26 05:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-26 09:00:04</t>
+  </si>
+  <si>
+    <t>18.879999999999995</t>
+  </si>
+  <si>
+    <t>2023-07-26 12:00:02</t>
+  </si>
+  <si>
+    <t>21.340000000000003</t>
+  </si>
+  <si>
+    <t>2023-07-26 15:00:03</t>
+  </si>
+  <si>
+    <t>29.079999999999984</t>
+  </si>
+  <si>
+    <t>2023-07-26 18:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-26 22:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-27 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-27 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-27 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-27 11:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-27 14:00:04</t>
+  </si>
+  <si>
+    <t>24.560000000000002</t>
+  </si>
+  <si>
+    <t>2023-07-27 17:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-27 20:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-27 23:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-28 02:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-28 04:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-28 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-28 09:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-28 12:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-28 15:00:04</t>
+  </si>
+  <si>
+    <t>24.409999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-28 18:00:03</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>2023-07-28 21:00:04</t>
+  </si>
+  <si>
+    <t>22.50999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-28 23:00:05</t>
+  </si>
+  <si>
+    <t>22.47</t>
+  </si>
+  <si>
+    <t>2023-07-29 01:00:02</t>
+  </si>
+  <si>
+    <t>22.569999999999993</t>
+  </si>
+  <si>
+    <t>2023-07-29 03:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-29 05:00:03</t>
+  </si>
+  <si>
+    <t>22.829999999999984</t>
+  </si>
+  <si>
+    <t>2023-07-29 08:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-29 10:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-29 13:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-29 16:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-29 19:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-29 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-30 01:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-30 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-30 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-30 09:00:04</t>
+  </si>
+  <si>
+    <t>26.159999999999997</t>
+  </si>
+  <si>
+    <t>2023-07-30 11:00:04</t>
+  </si>
+  <si>
+    <t>26.05000000000001</t>
+  </si>
+  <si>
+    <t>2023-07-30 14:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-30 17:00:05</t>
+  </si>
+  <si>
+    <t>24.69999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-30 19:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-30 21:00:02</t>
+  </si>
+  <si>
+    <t>2023-07-30 23:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-31 01:00:03</t>
+  </si>
+  <si>
+    <t>2023-07-31 04:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-31 07:00:05</t>
+  </si>
+  <si>
+    <t>2023-07-31 09:00:03</t>
+  </si>
+  <si>
+    <t>27.310000000000002</t>
+  </si>
+  <si>
+    <t>2023-07-31 11:00:05</t>
+  </si>
+  <si>
+    <t>34.19999999999999</t>
+  </si>
+  <si>
+    <t>2023-07-31 14:00:04</t>
+  </si>
+  <si>
+    <t>30.460000000000008</t>
+  </si>
+  <si>
+    <t>2023-07-31 16:00:03</t>
+  </si>
+  <si>
+    <t>42.25</t>
+  </si>
+  <si>
+    <t>25.069999999999993</t>
+  </si>
+  <si>
+    <t>2023-07-31 18:00:04</t>
+  </si>
+  <si>
+    <t>2023-07-31 20:00:03</t>
+  </si>
+  <si>
+    <t>15.740000000000009</t>
+  </si>
+  <si>
+    <t>2023-07-31 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-01 00:00:04</t>
+  </si>
+  <si>
+    <t>14.829999999999984</t>
+  </si>
+  <si>
+    <t>2023-08-01 02:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-01 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-01 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-01 09:00:04</t>
+  </si>
+  <si>
+    <t>15.699999999999989</t>
+  </si>
+  <si>
+    <t>2023-08-01 11:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-01 14:00:04</t>
+  </si>
+  <si>
+    <t>18.289999999999992</t>
+  </si>
+  <si>
+    <t>2023-08-01 17:00:03</t>
+  </si>
+  <si>
+    <t>16.960000000000008</t>
+  </si>
+  <si>
+    <t>2023-08-01 19:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-01 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-02 00:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-02 02:00:03</t>
+  </si>
+  <si>
+    <t>15.22999999999999</t>
+  </si>
+  <si>
+    <t>2023-08-02 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-02 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-02 11:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-02 13:00:02</t>
+  </si>
+  <si>
+    <t>21.859999999999985</t>
+  </si>
+  <si>
+    <t>2023-08-02 16:00:04</t>
+  </si>
+  <si>
+    <t>29.02000000000001</t>
+  </si>
+  <si>
+    <t>2023-08-02 18:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-02 20:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-02 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-03 00:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-03 02:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-03 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-03 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-03 09:00:05</t>
+  </si>
+  <si>
+    <t>28.47</t>
+  </si>
+  <si>
+    <t>2023-08-03 11:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-03 13:00:03</t>
+  </si>
+  <si>
+    <t>30.74000000000001</t>
+  </si>
+  <si>
+    <t>2023-08-03 15:00:04</t>
+  </si>
+  <si>
+    <t>39.88</t>
+  </si>
+  <si>
+    <t>2023-08-03 17:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-03 20:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-03 22:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-04 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-04 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-04 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-04 07:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-04 09:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-04 11:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-04 14:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-04 16:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-04 19:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-04 22:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-05 00:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-05 02:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-05 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-05 08:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-05 10:00:05</t>
+  </si>
+  <si>
+    <t>20.539999999999992</t>
+  </si>
+  <si>
+    <t>2023-08-05 13:00:02</t>
+  </si>
+  <si>
+    <t>23.039999999999992</t>
+  </si>
+  <si>
+    <t>2023-08-05 16:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-05 19:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-05 22:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-06 00:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-06 02:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-06 04:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-06 07:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-06 09:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-06 11:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-06 14:00:04</t>
+  </si>
+  <si>
+    <t>34.389999999999986</t>
+  </si>
+  <si>
+    <t>2023-08-06 16:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-06 18:00:05</t>
+  </si>
+  <si>
+    <t>2023-08-06 20:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-06 22:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-07 00:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-07 03:00:03</t>
+  </si>
+  <si>
+    <t>31.81</t>
+  </si>
+  <si>
+    <t>2023-08-07 05:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-07 08:00:02</t>
+  </si>
+  <si>
+    <t>16.78</t>
+  </si>
+  <si>
+    <t>2023-08-07 10:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-07 12:00:03</t>
+  </si>
+  <si>
+    <t>21.319999999999993</t>
+  </si>
+  <si>
+    <t>2023-08-07 14:00:02</t>
+  </si>
+  <si>
+    <t>22.389999999999986</t>
+  </si>
+  <si>
+    <t>2023-08-07 16:00:03</t>
+  </si>
+  <si>
+    <t>41.81</t>
+  </si>
+  <si>
+    <t>2023-08-07 18:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-07 20:00:03</t>
+  </si>
+  <si>
+    <t>12.550000000000011</t>
+  </si>
+  <si>
+    <t>2023-08-07 22:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-08 00:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-08 02:00:03</t>
+  </si>
+  <si>
+    <t>6.1299999999999955</t>
+  </si>
+  <si>
+    <t>2023-08-08 04:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-08 07:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-08 09:00:02</t>
+  </si>
+  <si>
+    <t>2023-08-08 11:00:03</t>
+  </si>
+  <si>
+    <t>25.430000000000007</t>
+  </si>
+  <si>
+    <t>2023-08-08 14:00:03</t>
+  </si>
+  <si>
+    <t>20.210000000000008</t>
+  </si>
+  <si>
+    <t>2023-08-08 17:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-08 19:00:04</t>
+  </si>
+  <si>
+    <t>2023-08-08 21:00:03</t>
+  </si>
+  <si>
+    <t>2023-08-08 23:00:02</t>
   </si>
 </sst>
 </file>
@@ -19643,7 +21422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D3974"/>
+  <dimension ref="A1:D4398"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -75285,6 +77064,5942 @@
         <v>6528</v>
       </c>
     </row>
+    <row r="3975">
+      <c r="A3975" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3975" t="s">
+        <v>6529</v>
+      </c>
+      <c r="C3975" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D3975" t="s">
+        <v>3881</v>
+      </c>
+    </row>
+    <row r="3976">
+      <c r="A3976" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3976" t="s">
+        <v>6530</v>
+      </c>
+      <c r="C3976" t="s">
+        <v>901</v>
+      </c>
+      <c r="D3976" t="s">
+        <v>5859</v>
+      </c>
+    </row>
+    <row r="3977">
+      <c r="A3977" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3977" t="s">
+        <v>6531</v>
+      </c>
+      <c r="C3977" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3977" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3978">
+      <c r="A3978" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3978" t="s">
+        <v>6532</v>
+      </c>
+      <c r="C3978" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D3978" t="s">
+        <v>6401</v>
+      </c>
+    </row>
+    <row r="3979">
+      <c r="A3979" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3979" t="s">
+        <v>6533</v>
+      </c>
+      <c r="C3979" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D3979" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="3980">
+      <c r="A3980" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3980" t="s">
+        <v>6534</v>
+      </c>
+      <c r="C3980" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D3980" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="3981">
+      <c r="A3981" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3981" t="s">
+        <v>6535</v>
+      </c>
+      <c r="C3981" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D3981" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="3982">
+      <c r="A3982" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3982" t="s">
+        <v>6536</v>
+      </c>
+      <c r="C3982" t="s">
+        <v>882</v>
+      </c>
+      <c r="D3982" t="s">
+        <v>6537</v>
+      </c>
+    </row>
+    <row r="3983">
+      <c r="A3983" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3983" t="s">
+        <v>6538</v>
+      </c>
+      <c r="C3983" t="s">
+        <v>675</v>
+      </c>
+      <c r="D3983" t="s">
+        <v>4698</v>
+      </c>
+    </row>
+    <row r="3984">
+      <c r="A3984" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3984" t="s">
+        <v>6539</v>
+      </c>
+      <c r="C3984" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3984" t="s">
+        <v>4715</v>
+      </c>
+    </row>
+    <row r="3985">
+      <c r="A3985" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3985" t="s">
+        <v>6540</v>
+      </c>
+      <c r="C3985" t="s">
+        <v>664</v>
+      </c>
+      <c r="D3985" t="s">
+        <v>4715</v>
+      </c>
+    </row>
+    <row r="3986">
+      <c r="A3986" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3986" t="s">
+        <v>6541</v>
+      </c>
+      <c r="C3986" t="s">
+        <v>664</v>
+      </c>
+      <c r="D3986" t="s">
+        <v>6542</v>
+      </c>
+    </row>
+    <row r="3987">
+      <c r="A3987" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3987" t="s">
+        <v>6543</v>
+      </c>
+      <c r="C3987" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3987" t="s">
+        <v>6544</v>
+      </c>
+    </row>
+    <row r="3988">
+      <c r="A3988" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3988" t="s">
+        <v>6545</v>
+      </c>
+      <c r="C3988" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3988" t="s">
+        <v>5764</v>
+      </c>
+    </row>
+    <row r="3989">
+      <c r="A3989" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3989" t="s">
+        <v>6546</v>
+      </c>
+      <c r="C3989" t="s">
+        <v>308</v>
+      </c>
+      <c r="D3989" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="3990">
+      <c r="A3990" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3990" t="s">
+        <v>6547</v>
+      </c>
+      <c r="C3990" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D3990" t="s">
+        <v>6548</v>
+      </c>
+    </row>
+    <row r="3991">
+      <c r="A3991" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3991" t="s">
+        <v>6549</v>
+      </c>
+      <c r="C3991" t="s">
+        <v>240</v>
+      </c>
+      <c r="D3991" t="s">
+        <v>6550</v>
+      </c>
+    </row>
+    <row r="3992">
+      <c r="A3992" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3992" t="s">
+        <v>6551</v>
+      </c>
+      <c r="C3992" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3992" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="3993">
+      <c r="A3993" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3993" t="s">
+        <v>6552</v>
+      </c>
+      <c r="C3993" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3993" t="s">
+        <v>4701</v>
+      </c>
+    </row>
+    <row r="3994">
+      <c r="A3994" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3994" t="s">
+        <v>6553</v>
+      </c>
+      <c r="C3994" t="s">
+        <v>344</v>
+      </c>
+      <c r="D3994" t="s">
+        <v>6554</v>
+      </c>
+    </row>
+    <row r="3995">
+      <c r="A3995" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3995" t="s">
+        <v>6555</v>
+      </c>
+      <c r="C3995" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3995" t="s">
+        <v>4708</v>
+      </c>
+    </row>
+    <row r="3996">
+      <c r="A3996" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3996" t="s">
+        <v>6556</v>
+      </c>
+      <c r="C3996" t="s">
+        <v>675</v>
+      </c>
+      <c r="D3996" t="s">
+        <v>6232</v>
+      </c>
+    </row>
+    <row r="3997">
+      <c r="A3997" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3997" t="s">
+        <v>6557</v>
+      </c>
+      <c r="C3997" t="s">
+        <v>751</v>
+      </c>
+      <c r="D3997" t="s">
+        <v>6476</v>
+      </c>
+    </row>
+    <row r="3998">
+      <c r="A3998" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3998" t="s">
+        <v>6558</v>
+      </c>
+      <c r="C3998" t="s">
+        <v>876</v>
+      </c>
+      <c r="D3998" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="3999">
+      <c r="A3999" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3999" t="s">
+        <v>6559</v>
+      </c>
+      <c r="C3999" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3999" t="s">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="4000">
+      <c r="A4000" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4000" t="s">
+        <v>6560</v>
+      </c>
+      <c r="C4000" t="s">
+        <v>4530</v>
+      </c>
+      <c r="D4000" t="s">
+        <v>6561</v>
+      </c>
+    </row>
+    <row r="4001">
+      <c r="A4001" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4001" t="s">
+        <v>6562</v>
+      </c>
+      <c r="C4001" t="s">
+        <v>463</v>
+      </c>
+      <c r="D4001" t="s">
+        <v>6563</v>
+      </c>
+    </row>
+    <row r="4002">
+      <c r="A4002" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4002" t="s">
+        <v>6564</v>
+      </c>
+      <c r="C4002" t="s">
+        <v>375</v>
+      </c>
+      <c r="D4002" t="s">
+        <v>6565</v>
+      </c>
+    </row>
+    <row r="4003">
+      <c r="A4003" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4003" t="s">
+        <v>6566</v>
+      </c>
+      <c r="C4003" t="s">
+        <v>6130</v>
+      </c>
+      <c r="D4003" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="4004">
+      <c r="A4004" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4004" t="s">
+        <v>6567</v>
+      </c>
+      <c r="C4004" t="s">
+        <v>6568</v>
+      </c>
+      <c r="D4004" t="s">
+        <v>6569</v>
+      </c>
+    </row>
+    <row r="4005">
+      <c r="A4005" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4005" t="s">
+        <v>6570</v>
+      </c>
+      <c r="C4005" t="s">
+        <v>6571</v>
+      </c>
+      <c r="D4005" t="s">
+        <v>6572</v>
+      </c>
+    </row>
+    <row r="4006">
+      <c r="A4006" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4006" t="s">
+        <v>6573</v>
+      </c>
+      <c r="C4006" t="s">
+        <v>6459</v>
+      </c>
+      <c r="D4006" t="s">
+        <v>6574</v>
+      </c>
+    </row>
+    <row r="4007">
+      <c r="A4007" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4007" t="s">
+        <v>6575</v>
+      </c>
+      <c r="C4007" t="s">
+        <v>6576</v>
+      </c>
+      <c r="D4007" t="s">
+        <v>4116</v>
+      </c>
+    </row>
+    <row r="4008">
+      <c r="A4008" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4008" t="s">
+        <v>6577</v>
+      </c>
+      <c r="C4008" t="s">
+        <v>349</v>
+      </c>
+      <c r="D4008" t="s">
+        <v>4624</v>
+      </c>
+    </row>
+    <row r="4009">
+      <c r="A4009" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4009" t="s">
+        <v>6578</v>
+      </c>
+      <c r="C4009" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4009" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="4010">
+      <c r="A4010" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4010" t="s">
+        <v>6579</v>
+      </c>
+      <c r="C4010" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4010" t="s">
+        <v>2919</v>
+      </c>
+    </row>
+    <row r="4011">
+      <c r="A4011" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4011" t="s">
+        <v>6580</v>
+      </c>
+      <c r="C4011" t="s">
+        <v>4448</v>
+      </c>
+      <c r="D4011" t="s">
+        <v>6581</v>
+      </c>
+    </row>
+    <row r="4012">
+      <c r="A4012" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4012" t="s">
+        <v>6582</v>
+      </c>
+      <c r="C4012" t="s">
+        <v>705</v>
+      </c>
+      <c r="D4012" t="s">
+        <v>3733</v>
+      </c>
+    </row>
+    <row r="4013">
+      <c r="A4013" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4013" t="s">
+        <v>6583</v>
+      </c>
+      <c r="C4013" t="s">
+        <v>862</v>
+      </c>
+      <c r="D4013" t="s">
+        <v>6584</v>
+      </c>
+    </row>
+    <row r="4014">
+      <c r="A4014" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4014" t="s">
+        <v>6585</v>
+      </c>
+      <c r="C4014" t="s">
+        <v>811</v>
+      </c>
+      <c r="D4014" t="s">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="4015">
+      <c r="A4015" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4015" t="s">
+        <v>6586</v>
+      </c>
+      <c r="C4015" t="s">
+        <v>4148</v>
+      </c>
+      <c r="D4015" t="s">
+        <v>5869</v>
+      </c>
+    </row>
+    <row r="4016">
+      <c r="A4016" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4016" t="s">
+        <v>6587</v>
+      </c>
+      <c r="C4016" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D4016" t="s">
+        <v>5650</v>
+      </c>
+    </row>
+    <row r="4017">
+      <c r="A4017" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4017" t="s">
+        <v>6588</v>
+      </c>
+      <c r="C4017" t="s">
+        <v>939</v>
+      </c>
+      <c r="D4017" t="s">
+        <v>5681</v>
+      </c>
+    </row>
+    <row r="4018">
+      <c r="A4018" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4018" t="s">
+        <v>6589</v>
+      </c>
+      <c r="C4018" t="s">
+        <v>708</v>
+      </c>
+      <c r="D4018" t="s">
+        <v>6554</v>
+      </c>
+    </row>
+    <row r="4019">
+      <c r="A4019" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4019" t="s">
+        <v>6590</v>
+      </c>
+      <c r="C4019" t="s">
+        <v>501</v>
+      </c>
+      <c r="D4019" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="4020">
+      <c r="A4020" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4020" t="s">
+        <v>6591</v>
+      </c>
+      <c r="C4020" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4020" t="s">
+        <v>6592</v>
+      </c>
+    </row>
+    <row r="4021">
+      <c r="A4021" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4021" t="s">
+        <v>6593</v>
+      </c>
+      <c r="C4021" t="s">
+        <v>380</v>
+      </c>
+      <c r="D4021" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="4022">
+      <c r="A4022" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4022" t="s">
+        <v>6594</v>
+      </c>
+      <c r="C4022" t="s">
+        <v>603</v>
+      </c>
+      <c r="D4022" t="s">
+        <v>6595</v>
+      </c>
+    </row>
+    <row r="4023">
+      <c r="A4023" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4023" t="s">
+        <v>6596</v>
+      </c>
+      <c r="C4023" t="s">
+        <v>550</v>
+      </c>
+      <c r="D4023" t="s">
+        <v>6265</v>
+      </c>
+    </row>
+    <row r="4024">
+      <c r="A4024" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4024" t="s">
+        <v>6597</v>
+      </c>
+      <c r="C4024" t="s">
+        <v>6598</v>
+      </c>
+      <c r="D4024" t="s">
+        <v>6599</v>
+      </c>
+    </row>
+    <row r="4025">
+      <c r="A4025" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4025" t="s">
+        <v>6600</v>
+      </c>
+      <c r="C4025" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4025" t="s">
+        <v>6601</v>
+      </c>
+    </row>
+    <row r="4026">
+      <c r="A4026" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4026" t="s">
+        <v>6602</v>
+      </c>
+      <c r="C4026" t="s">
+        <v>6603</v>
+      </c>
+      <c r="D4026" t="s">
+        <v>6157</v>
+      </c>
+    </row>
+    <row r="4027">
+      <c r="A4027" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4027" t="s">
+        <v>6604</v>
+      </c>
+      <c r="C4027" t="s">
+        <v>6605</v>
+      </c>
+      <c r="D4027" t="s">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="4028">
+      <c r="A4028" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4028" t="s">
+        <v>6606</v>
+      </c>
+      <c r="C4028" t="s">
+        <v>638</v>
+      </c>
+      <c r="D4028" t="s">
+        <v>4738</v>
+      </c>
+    </row>
+    <row r="4029">
+      <c r="A4029" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4029" t="s">
+        <v>6607</v>
+      </c>
+      <c r="C4029" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4029" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="4030">
+      <c r="A4030" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4030" t="s">
+        <v>6608</v>
+      </c>
+      <c r="C4030" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4030" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="4031">
+      <c r="A4031" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4031" t="s">
+        <v>6609</v>
+      </c>
+      <c r="C4031" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4031" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="4032">
+      <c r="A4032" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4032" t="s">
+        <v>6610</v>
+      </c>
+      <c r="C4032" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4032" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="4033">
+      <c r="A4033" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4033" t="s">
+        <v>6611</v>
+      </c>
+      <c r="C4033" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4033" t="s">
+        <v>5176</v>
+      </c>
+    </row>
+    <row r="4034">
+      <c r="A4034" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4034" t="s">
+        <v>6612</v>
+      </c>
+      <c r="C4034" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4034" t="s">
+        <v>6613</v>
+      </c>
+    </row>
+    <row r="4035">
+      <c r="A4035" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4035" t="s">
+        <v>6614</v>
+      </c>
+      <c r="C4035" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4035" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="4036">
+      <c r="A4036" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4036" t="s">
+        <v>6615</v>
+      </c>
+      <c r="C4036" t="s">
+        <v>680</v>
+      </c>
+      <c r="D4036" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="4037">
+      <c r="A4037" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4037" t="s">
+        <v>6616</v>
+      </c>
+      <c r="C4037" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4037" t="s">
+        <v>5929</v>
+      </c>
+    </row>
+    <row r="4038">
+      <c r="A4038" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4038" t="s">
+        <v>6617</v>
+      </c>
+      <c r="C4038" t="s">
+        <v>589</v>
+      </c>
+      <c r="D4038" t="s">
+        <v>6618</v>
+      </c>
+    </row>
+    <row r="4039">
+      <c r="A4039" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4039" t="s">
+        <v>6619</v>
+      </c>
+      <c r="C4039" t="s">
+        <v>550</v>
+      </c>
+      <c r="D4039" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="4040">
+      <c r="A4040" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4040" t="s">
+        <v>6620</v>
+      </c>
+      <c r="C4040" t="s">
+        <v>592</v>
+      </c>
+      <c r="D4040" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="4041">
+      <c r="A4041" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4041" t="s">
+        <v>6621</v>
+      </c>
+      <c r="C4041" t="s">
+        <v>6622</v>
+      </c>
+      <c r="D4041" t="s">
+        <v>6623</v>
+      </c>
+    </row>
+    <row r="4042">
+      <c r="A4042" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4042" t="s">
+        <v>6624</v>
+      </c>
+      <c r="C4042" t="s">
+        <v>538</v>
+      </c>
+      <c r="D4042" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4043">
+      <c r="A4043" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4043" t="s">
+        <v>6625</v>
+      </c>
+      <c r="C4043" t="s">
+        <v>6465</v>
+      </c>
+      <c r="D4043" t="s">
+        <v>6626</v>
+      </c>
+    </row>
+    <row r="4044">
+      <c r="A4044" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4044" t="s">
+        <v>6627</v>
+      </c>
+      <c r="C4044" t="s">
+        <v>6628</v>
+      </c>
+      <c r="D4044" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="4045">
+      <c r="A4045" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4045" t="s">
+        <v>6629</v>
+      </c>
+      <c r="C4045" t="s">
+        <v>6630</v>
+      </c>
+      <c r="D4045" t="s">
+        <v>6145</v>
+      </c>
+    </row>
+    <row r="4046">
+      <c r="A4046" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4046" t="s">
+        <v>6631</v>
+      </c>
+      <c r="C4046" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4046" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="4047">
+      <c r="A4047" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4047" t="s">
+        <v>6632</v>
+      </c>
+      <c r="C4047" t="s">
+        <v>305</v>
+      </c>
+      <c r="D4047" t="s">
+        <v>6633</v>
+      </c>
+    </row>
+    <row r="4048">
+      <c r="A4048" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4048" t="s">
+        <v>6634</v>
+      </c>
+      <c r="C4048" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4048" t="s">
+        <v>4986</v>
+      </c>
+    </row>
+    <row r="4049">
+      <c r="A4049" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4049" t="s">
+        <v>6635</v>
+      </c>
+      <c r="C4049" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4049" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="4050">
+      <c r="A4050" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4050" t="s">
+        <v>6636</v>
+      </c>
+      <c r="C4050" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4050" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="4051">
+      <c r="A4051" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4051" t="s">
+        <v>6637</v>
+      </c>
+      <c r="C4051" t="s">
+        <v>491</v>
+      </c>
+      <c r="D4051" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="4052">
+      <c r="A4052" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4052" t="s">
+        <v>6638</v>
+      </c>
+      <c r="C4052" t="s">
+        <v>729</v>
+      </c>
+      <c r="D4052" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4053">
+      <c r="A4053" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4053" t="s">
+        <v>6639</v>
+      </c>
+      <c r="C4053" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D4053" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4054">
+      <c r="A4054" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4054" t="s">
+        <v>6640</v>
+      </c>
+      <c r="C4054" t="s">
+        <v>756</v>
+      </c>
+      <c r="D4054" t="s">
+        <v>3841</v>
+      </c>
+    </row>
+    <row r="4055">
+      <c r="A4055" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4055" t="s">
+        <v>6641</v>
+      </c>
+      <c r="C4055" t="s">
+        <v>825</v>
+      </c>
+      <c r="D4055" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="4056">
+      <c r="A4056" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4056" t="s">
+        <v>6642</v>
+      </c>
+      <c r="C4056" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D4056" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="4057">
+      <c r="A4057" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4057" t="s">
+        <v>6643</v>
+      </c>
+      <c r="C4057" t="s">
+        <v>825</v>
+      </c>
+      <c r="D4057" t="s">
+        <v>5851</v>
+      </c>
+    </row>
+    <row r="4058">
+      <c r="A4058" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4058" t="s">
+        <v>6644</v>
+      </c>
+      <c r="C4058" t="s">
+        <v>761</v>
+      </c>
+      <c r="D4058" t="s">
+        <v>6645</v>
+      </c>
+    </row>
+    <row r="4059">
+      <c r="A4059" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4059" t="s">
+        <v>6646</v>
+      </c>
+      <c r="C4059" t="s">
+        <v>4448</v>
+      </c>
+      <c r="D4059" t="s">
+        <v>6647</v>
+      </c>
+    </row>
+    <row r="4060">
+      <c r="A4060" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4060" t="s">
+        <v>6648</v>
+      </c>
+      <c r="C4060" t="s">
+        <v>751</v>
+      </c>
+      <c r="D4060" t="s">
+        <v>6649</v>
+      </c>
+    </row>
+    <row r="4061">
+      <c r="A4061" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4061" t="s">
+        <v>6650</v>
+      </c>
+      <c r="C4061" t="s">
+        <v>839</v>
+      </c>
+      <c r="D4061" t="s">
+        <v>6651</v>
+      </c>
+    </row>
+    <row r="4062">
+      <c r="A4062" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4062" t="s">
+        <v>6652</v>
+      </c>
+      <c r="C4062" t="s">
+        <v>939</v>
+      </c>
+      <c r="D4062" t="s">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="4063">
+      <c r="A4063" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4063" t="s">
+        <v>6653</v>
+      </c>
+      <c r="C4063" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4063" t="s">
+        <v>5988</v>
+      </c>
+    </row>
+    <row r="4064">
+      <c r="A4064" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4064" t="s">
+        <v>6654</v>
+      </c>
+      <c r="C4064" t="s">
+        <v>729</v>
+      </c>
+      <c r="D4064" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="4065">
+      <c r="A4065" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4065" t="s">
+        <v>6655</v>
+      </c>
+      <c r="C4065" t="s">
+        <v>907</v>
+      </c>
+      <c r="D4065" t="s">
+        <v>6656</v>
+      </c>
+    </row>
+    <row r="4066">
+      <c r="A4066" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4066" t="s">
+        <v>6657</v>
+      </c>
+      <c r="C4066" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D4066" t="s">
+        <v>6658</v>
+      </c>
+    </row>
+    <row r="4067">
+      <c r="A4067" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4067" t="s">
+        <v>6659</v>
+      </c>
+      <c r="C4067" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4067" t="s">
+        <v>6660</v>
+      </c>
+    </row>
+    <row r="4068">
+      <c r="A4068" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4068" t="s">
+        <v>6661</v>
+      </c>
+      <c r="C4068" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D4068" t="s">
+        <v>6662</v>
+      </c>
+    </row>
+    <row r="4069">
+      <c r="A4069" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4069" t="s">
+        <v>6663</v>
+      </c>
+      <c r="C4069" t="s">
+        <v>862</v>
+      </c>
+      <c r="D4069" t="s">
+        <v>6664</v>
+      </c>
+    </row>
+    <row r="4070">
+      <c r="A4070" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4070" t="s">
+        <v>6665</v>
+      </c>
+      <c r="C4070" t="s">
+        <v>876</v>
+      </c>
+      <c r="D4070" t="s">
+        <v>6666</v>
+      </c>
+    </row>
+    <row r="4071">
+      <c r="A4071" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4071" t="s">
+        <v>6667</v>
+      </c>
+      <c r="C4071" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4071" t="s">
+        <v>6668</v>
+      </c>
+    </row>
+    <row r="4072">
+      <c r="A4072" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4072" t="s">
+        <v>6669</v>
+      </c>
+      <c r="C4072" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4072" t="s">
+        <v>6670</v>
+      </c>
+    </row>
+    <row r="4073">
+      <c r="A4073" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4073" t="s">
+        <v>6671</v>
+      </c>
+      <c r="C4073" t="s">
+        <v>4465</v>
+      </c>
+      <c r="D4073" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4074">
+      <c r="A4074" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4074" t="s">
+        <v>6672</v>
+      </c>
+      <c r="C4074" t="s">
+        <v>6673</v>
+      </c>
+      <c r="D4074" t="s">
+        <v>6674</v>
+      </c>
+    </row>
+    <row r="4075">
+      <c r="A4075" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4075" t="s">
+        <v>6675</v>
+      </c>
+      <c r="C4075" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4075" t="s">
+        <v>6676</v>
+      </c>
+    </row>
+    <row r="4076">
+      <c r="A4076" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4076" t="s">
+        <v>6677</v>
+      </c>
+      <c r="C4076" t="s">
+        <v>6678</v>
+      </c>
+      <c r="D4076" t="s">
+        <v>6679</v>
+      </c>
+    </row>
+    <row r="4077">
+      <c r="A4077" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4077" t="s">
+        <v>6680</v>
+      </c>
+      <c r="C4077" t="s">
+        <v>6678</v>
+      </c>
+      <c r="D4077" t="s">
+        <v>6681</v>
+      </c>
+    </row>
+    <row r="4078">
+      <c r="A4078" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4078" t="s">
+        <v>6682</v>
+      </c>
+      <c r="C4078" t="s">
+        <v>516</v>
+      </c>
+      <c r="D4078" t="s">
+        <v>6683</v>
+      </c>
+    </row>
+    <row r="4079">
+      <c r="A4079" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4079" t="s">
+        <v>6684</v>
+      </c>
+      <c r="C4079" t="s">
+        <v>371</v>
+      </c>
+      <c r="D4079" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="4080">
+      <c r="A4080" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4080" t="s">
+        <v>6685</v>
+      </c>
+      <c r="C4080" t="s">
+        <v>336</v>
+      </c>
+      <c r="D4080" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="4081">
+      <c r="A4081" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4081" t="s">
+        <v>6686</v>
+      </c>
+      <c r="C4081" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4081" t="s">
+        <v>4703</v>
+      </c>
+    </row>
+    <row r="4082">
+      <c r="A4082" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4082" t="s">
+        <v>6687</v>
+      </c>
+      <c r="C4082" t="s">
+        <v>5451</v>
+      </c>
+      <c r="D4082" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="4083">
+      <c r="A4083" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4083" t="s">
+        <v>6688</v>
+      </c>
+      <c r="C4083" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4083" t="s">
+        <v>6689</v>
+      </c>
+    </row>
+    <row r="4084">
+      <c r="A4084" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4084" t="s">
+        <v>6690</v>
+      </c>
+      <c r="C4084" t="s">
+        <v>286</v>
+      </c>
+      <c r="D4084" t="s">
+        <v>6691</v>
+      </c>
+    </row>
+    <row r="4085">
+      <c r="A4085" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4085" t="s">
+        <v>6692</v>
+      </c>
+      <c r="C4085" t="s">
+        <v>6576</v>
+      </c>
+      <c r="D4085" t="s">
+        <v>6693</v>
+      </c>
+    </row>
+    <row r="4086">
+      <c r="A4086" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4086" t="s">
+        <v>6694</v>
+      </c>
+      <c r="C4086" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4086" t="s">
+        <v>4377</v>
+      </c>
+    </row>
+    <row r="4087">
+      <c r="A4087" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4087" t="s">
+        <v>6695</v>
+      </c>
+      <c r="C4087" t="s">
+        <v>851</v>
+      </c>
+      <c r="D4087" t="s">
+        <v>4492</v>
+      </c>
+    </row>
+    <row r="4088">
+      <c r="A4088" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4088" t="s">
+        <v>6696</v>
+      </c>
+      <c r="C4088" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4088" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="4089">
+      <c r="A4089" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4089" t="s">
+        <v>6697</v>
+      </c>
+      <c r="C4089" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4089" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="4090">
+      <c r="A4090" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4090" t="s">
+        <v>6698</v>
+      </c>
+      <c r="C4090" t="s">
+        <v>375</v>
+      </c>
+      <c r="D4090" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4091">
+      <c r="A4091" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4091" t="s">
+        <v>6699</v>
+      </c>
+      <c r="C4091" t="s">
+        <v>5532</v>
+      </c>
+      <c r="D4091" t="s">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="4092">
+      <c r="A4092" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4092" t="s">
+        <v>6701</v>
+      </c>
+      <c r="C4092" t="s">
+        <v>5532</v>
+      </c>
+      <c r="D4092" t="s">
+        <v>6702</v>
+      </c>
+    </row>
+    <row r="4093">
+      <c r="A4093" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4093" t="s">
+        <v>6703</v>
+      </c>
+      <c r="C4093" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4093" t="s">
+        <v>6704</v>
+      </c>
+    </row>
+    <row r="4094">
+      <c r="A4094" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4094" t="s">
+        <v>6705</v>
+      </c>
+      <c r="C4094" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4094" t="s">
+        <v>6706</v>
+      </c>
+    </row>
+    <row r="4095">
+      <c r="A4095" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4095" t="s">
+        <v>6707</v>
+      </c>
+      <c r="C4095" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4095" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="4096">
+      <c r="A4096" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4096" t="s">
+        <v>6708</v>
+      </c>
+      <c r="C4096" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4096" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="4097">
+      <c r="A4097" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4097" t="s">
+        <v>6709</v>
+      </c>
+      <c r="C4097" t="s">
+        <v>4465</v>
+      </c>
+      <c r="D4097" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="4098">
+      <c r="A4098" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4098" t="s">
+        <v>6710</v>
+      </c>
+      <c r="C4098" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4098" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4099">
+      <c r="A4099" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4099" t="s">
+        <v>6711</v>
+      </c>
+      <c r="C4099" t="s">
+        <v>6179</v>
+      </c>
+      <c r="D4099" t="s">
+        <v>6513</v>
+      </c>
+    </row>
+    <row r="4100">
+      <c r="A4100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4100" t="s">
+        <v>6712</v>
+      </c>
+      <c r="C4100" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4100" t="s">
+        <v>6326</v>
+      </c>
+    </row>
+    <row r="4101">
+      <c r="A4101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4101" t="s">
+        <v>6713</v>
+      </c>
+      <c r="C4101" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4101" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="4102">
+      <c r="A4102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4102" t="s">
+        <v>6714</v>
+      </c>
+      <c r="C4102" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4102" t="s">
+        <v>6715</v>
+      </c>
+    </row>
+    <row r="4103">
+      <c r="A4103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4103" t="s">
+        <v>6716</v>
+      </c>
+      <c r="C4103" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4103" t="s">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="4104">
+      <c r="A4104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4104" t="s">
+        <v>6717</v>
+      </c>
+      <c r="C4104" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4104" t="s">
+        <v>6718</v>
+      </c>
+    </row>
+    <row r="4105">
+      <c r="A4105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4105" t="s">
+        <v>6719</v>
+      </c>
+      <c r="C4105" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4105" t="s">
+        <v>4482</v>
+      </c>
+    </row>
+    <row r="4106">
+      <c r="A4106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4106" t="s">
+        <v>6720</v>
+      </c>
+      <c r="C4106" t="s">
+        <v>344</v>
+      </c>
+      <c r="D4106" t="s">
+        <v>6721</v>
+      </c>
+    </row>
+    <row r="4107">
+      <c r="A4107" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4107" t="s">
+        <v>6722</v>
+      </c>
+      <c r="C4107" t="s">
+        <v>740</v>
+      </c>
+      <c r="D4107" t="s">
+        <v>6723</v>
+      </c>
+    </row>
+    <row r="4108">
+      <c r="A4108" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4108" t="s">
+        <v>6724</v>
+      </c>
+      <c r="C4108" t="s">
+        <v>574</v>
+      </c>
+      <c r="D4108" t="s">
+        <v>6725</v>
+      </c>
+    </row>
+    <row r="4109">
+      <c r="A4109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4109" t="s">
+        <v>6726</v>
+      </c>
+      <c r="C4109" t="s">
+        <v>6571</v>
+      </c>
+      <c r="D4109" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="4110">
+      <c r="A4110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4110" t="s">
+        <v>6727</v>
+      </c>
+      <c r="C4110" t="s">
+        <v>409</v>
+      </c>
+      <c r="D4110" t="s">
+        <v>5604</v>
+      </c>
+    </row>
+    <row r="4111">
+      <c r="A4111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4111" t="s">
+        <v>6728</v>
+      </c>
+      <c r="C4111" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4111" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="4112">
+      <c r="A4112" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4112" t="s">
+        <v>6729</v>
+      </c>
+      <c r="C4112" t="s">
+        <v>936</v>
+      </c>
+      <c r="D4112" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="4113">
+      <c r="A4113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4113" t="s">
+        <v>6730</v>
+      </c>
+      <c r="C4113" t="s">
+        <v>751</v>
+      </c>
+      <c r="D4113" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="4114">
+      <c r="A4114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4114" t="s">
+        <v>6731</v>
+      </c>
+      <c r="C4114" t="s">
+        <v>724</v>
+      </c>
+      <c r="D4114" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="4115">
+      <c r="A4115" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4115" t="s">
+        <v>6732</v>
+      </c>
+      <c r="C4115" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D4115" t="s">
+        <v>6733</v>
+      </c>
+    </row>
+    <row r="4116">
+      <c r="A4116" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4116" t="s">
+        <v>6734</v>
+      </c>
+      <c r="C4116" t="s">
+        <v>589</v>
+      </c>
+      <c r="D4116" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4117">
+      <c r="A4117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4117" t="s">
+        <v>6735</v>
+      </c>
+      <c r="C4117" t="s">
+        <v>443</v>
+      </c>
+      <c r="D4117" t="s">
+        <v>6736</v>
+      </c>
+    </row>
+    <row r="4118">
+      <c r="A4118" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4118" t="s">
+        <v>6737</v>
+      </c>
+      <c r="C4118" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4118" t="s">
+        <v>6738</v>
+      </c>
+    </row>
+    <row r="4119">
+      <c r="A4119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4119" t="s">
+        <v>6739</v>
+      </c>
+      <c r="C4119" t="s">
+        <v>6740</v>
+      </c>
+      <c r="D4119" t="s">
+        <v>6741</v>
+      </c>
+    </row>
+    <row r="4120">
+      <c r="A4120" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4120" t="s">
+        <v>6742</v>
+      </c>
+      <c r="C4120" t="s">
+        <v>395</v>
+      </c>
+      <c r="D4120" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="4121">
+      <c r="A4121" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4121" t="s">
+        <v>6743</v>
+      </c>
+      <c r="C4121" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4121" t="s">
+        <v>6744</v>
+      </c>
+    </row>
+    <row r="4122">
+      <c r="A4122" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4122" t="s">
+        <v>6745</v>
+      </c>
+      <c r="C4122" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4122" t="s">
+        <v>6746</v>
+      </c>
+    </row>
+    <row r="4123">
+      <c r="A4123" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4123" t="s">
+        <v>6747</v>
+      </c>
+      <c r="C4123" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4123" t="s">
+        <v>6561</v>
+      </c>
+    </row>
+    <row r="4124">
+      <c r="A4124" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4124" t="s">
+        <v>6748</v>
+      </c>
+      <c r="C4124" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4124" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="4125">
+      <c r="A4125" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4125" t="s">
+        <v>6749</v>
+      </c>
+      <c r="C4125" t="s">
+        <v>457</v>
+      </c>
+      <c r="D4125" t="s">
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="4126">
+      <c r="A4126" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4126" t="s">
+        <v>6751</v>
+      </c>
+      <c r="C4126" t="s">
+        <v>6603</v>
+      </c>
+      <c r="D4126" t="s">
+        <v>6752</v>
+      </c>
+    </row>
+    <row r="4127">
+      <c r="A4127" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4127" t="s">
+        <v>6753</v>
+      </c>
+      <c r="C4127" t="s">
+        <v>655</v>
+      </c>
+      <c r="D4127" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="4128">
+      <c r="A4128" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4128" t="s">
+        <v>6754</v>
+      </c>
+      <c r="C4128" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4128" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4129">
+      <c r="A4129" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4129" t="s">
+        <v>6755</v>
+      </c>
+      <c r="C4129" t="s">
+        <v>6045</v>
+      </c>
+      <c r="D4129" t="s">
+        <v>3529</v>
+      </c>
+    </row>
+    <row r="4130">
+      <c r="A4130" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4130" t="s">
+        <v>6756</v>
+      </c>
+      <c r="C4130" t="s">
+        <v>6185</v>
+      </c>
+      <c r="D4130" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="4131">
+      <c r="A4131" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4131" t="s">
+        <v>6757</v>
+      </c>
+      <c r="C4131" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4131" t="s">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="4132">
+      <c r="A4132" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4132" t="s">
+        <v>6758</v>
+      </c>
+      <c r="C4132" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4132" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="4133">
+      <c r="A4133" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4133" t="s">
+        <v>6759</v>
+      </c>
+      <c r="C4133" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4133" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="4134">
+      <c r="A4134" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4134" t="s">
+        <v>6760</v>
+      </c>
+      <c r="C4134" t="s">
+        <v>606</v>
+      </c>
+      <c r="D4134" t="s">
+        <v>6689</v>
+      </c>
+    </row>
+    <row r="4135">
+      <c r="A4135" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4135" t="s">
+        <v>6761</v>
+      </c>
+      <c r="C4135" t="s">
+        <v>6762</v>
+      </c>
+      <c r="D4135" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="4136">
+      <c r="A4136" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4136" t="s">
+        <v>6763</v>
+      </c>
+      <c r="C4136" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4136" t="s">
+        <v>6764</v>
+      </c>
+    </row>
+    <row r="4137">
+      <c r="A4137" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4137" t="s">
+        <v>6765</v>
+      </c>
+      <c r="C4137" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4137" t="s">
+        <v>5198</v>
+      </c>
+    </row>
+    <row r="4138">
+      <c r="A4138" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4138" t="s">
+        <v>6766</v>
+      </c>
+      <c r="C4138" t="s">
+        <v>271</v>
+      </c>
+      <c r="D4138" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="4139">
+      <c r="A4139" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4139" t="s">
+        <v>6767</v>
+      </c>
+      <c r="C4139" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4139" t="s">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="4140">
+      <c r="A4140" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4140" t="s">
+        <v>6768</v>
+      </c>
+      <c r="C4140" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4140" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="4141">
+      <c r="A4141" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4141" t="s">
+        <v>6769</v>
+      </c>
+      <c r="C4141" t="s">
+        <v>275</v>
+      </c>
+      <c r="D4141" t="s">
+        <v>6770</v>
+      </c>
+    </row>
+    <row r="4142">
+      <c r="A4142" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4142" t="s">
+        <v>6771</v>
+      </c>
+      <c r="C4142" t="s">
+        <v>5102</v>
+      </c>
+      <c r="D4142" t="s">
+        <v>4181</v>
+      </c>
+    </row>
+    <row r="4143">
+      <c r="A4143" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4143" t="s">
+        <v>6772</v>
+      </c>
+      <c r="C4143" t="s">
+        <v>494</v>
+      </c>
+      <c r="D4143" t="s">
+        <v>6773</v>
+      </c>
+    </row>
+    <row r="4144">
+      <c r="A4144" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4144" t="s">
+        <v>6774</v>
+      </c>
+      <c r="C4144" t="s">
+        <v>371</v>
+      </c>
+      <c r="D4144" t="s">
+        <v>5810</v>
+      </c>
+    </row>
+    <row r="4145">
+      <c r="A4145" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4145" t="s">
+        <v>6775</v>
+      </c>
+      <c r="C4145" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4145" t="s">
+        <v>6776</v>
+      </c>
+    </row>
+    <row r="4146">
+      <c r="A4146" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4146" t="s">
+        <v>6777</v>
+      </c>
+      <c r="C4146" t="s">
+        <v>6778</v>
+      </c>
+      <c r="D4146" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="4147">
+      <c r="A4147" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4147" t="s">
+        <v>6779</v>
+      </c>
+      <c r="C4147" t="s">
+        <v>664</v>
+      </c>
+      <c r="D4147" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="4148">
+      <c r="A4148" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4148" t="s">
+        <v>6780</v>
+      </c>
+      <c r="C4148" t="s">
+        <v>375</v>
+      </c>
+      <c r="D4148" t="s">
+        <v>6781</v>
+      </c>
+    </row>
+    <row r="4149">
+      <c r="A4149" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4149" t="s">
+        <v>6782</v>
+      </c>
+      <c r="C4149" t="s">
+        <v>491</v>
+      </c>
+      <c r="D4149" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="4150">
+      <c r="A4150" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4150" t="s">
+        <v>6783</v>
+      </c>
+      <c r="C4150" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4150" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="4151">
+      <c r="A4151" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4151" t="s">
+        <v>6784</v>
+      </c>
+      <c r="C4151" t="s">
+        <v>336</v>
+      </c>
+      <c r="D4151" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="4152">
+      <c r="A4152" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4152" t="s">
+        <v>6785</v>
+      </c>
+      <c r="C4152" t="s">
+        <v>5102</v>
+      </c>
+      <c r="D4152" t="s">
+        <v>6786</v>
+      </c>
+    </row>
+    <row r="4153">
+      <c r="A4153" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4153" t="s">
+        <v>6787</v>
+      </c>
+      <c r="C4153" t="s">
+        <v>349</v>
+      </c>
+      <c r="D4153" t="s">
+        <v>6788</v>
+      </c>
+    </row>
+    <row r="4154">
+      <c r="A4154" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4154" t="s">
+        <v>6789</v>
+      </c>
+      <c r="C4154" t="s">
+        <v>6790</v>
+      </c>
+      <c r="D4154" t="s">
+        <v>6791</v>
+      </c>
+    </row>
+    <row r="4155">
+      <c r="A4155" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4155" t="s">
+        <v>6792</v>
+      </c>
+      <c r="C4155" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4155" t="s">
+        <v>6793</v>
+      </c>
+    </row>
+    <row r="4156">
+      <c r="A4156" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4156" t="s">
+        <v>6794</v>
+      </c>
+      <c r="C4156" t="s">
+        <v>6795</v>
+      </c>
+      <c r="D4156" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="4157">
+      <c r="A4157" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4157" t="s">
+        <v>6796</v>
+      </c>
+      <c r="C4157" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4157" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="4158">
+      <c r="A4158" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4158" t="s">
+        <v>6797</v>
+      </c>
+      <c r="C4158" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4158" t="s">
+        <v>6798</v>
+      </c>
+    </row>
+    <row r="4159">
+      <c r="A4159" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4159" t="s">
+        <v>6799</v>
+      </c>
+      <c r="C4159" t="s">
+        <v>4546</v>
+      </c>
+      <c r="D4159" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="4160">
+      <c r="A4160" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4160" t="s">
+        <v>6800</v>
+      </c>
+      <c r="C4160" t="s">
+        <v>5565</v>
+      </c>
+      <c r="D4160" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="4161">
+      <c r="A4161" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4161" t="s">
+        <v>6801</v>
+      </c>
+      <c r="C4161" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4161" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="4162">
+      <c r="A4162" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4162" t="s">
+        <v>6802</v>
+      </c>
+      <c r="C4162" t="s">
+        <v>4530</v>
+      </c>
+      <c r="D4162" t="s">
+        <v>6798</v>
+      </c>
+    </row>
+    <row r="4163">
+      <c r="A4163" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4163" t="s">
+        <v>6803</v>
+      </c>
+      <c r="C4163" t="s">
+        <v>5298</v>
+      </c>
+      <c r="D4163" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="4164">
+      <c r="A4164" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4164" t="s">
+        <v>6804</v>
+      </c>
+      <c r="C4164" t="s">
+        <v>936</v>
+      </c>
+      <c r="D4164" t="s">
+        <v>6805</v>
+      </c>
+    </row>
+    <row r="4165">
+      <c r="A4165" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4165" t="s">
+        <v>6806</v>
+      </c>
+      <c r="C4165" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4165" t="s">
+        <v>6807</v>
+      </c>
+    </row>
+    <row r="4166">
+      <c r="A4166" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4166" t="s">
+        <v>6808</v>
+      </c>
+      <c r="C4166" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4166" t="s">
+        <v>6809</v>
+      </c>
+    </row>
+    <row r="4167">
+      <c r="A4167" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4167" t="s">
+        <v>6810</v>
+      </c>
+      <c r="C4167" t="s">
+        <v>918</v>
+      </c>
+      <c r="D4167" t="s">
+        <v>3854</v>
+      </c>
+    </row>
+    <row r="4168">
+      <c r="A4168" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4168" t="s">
+        <v>6811</v>
+      </c>
+      <c r="C4168" t="s">
+        <v>4468</v>
+      </c>
+      <c r="D4168" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="4169">
+      <c r="A4169" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4169" t="s">
+        <v>6812</v>
+      </c>
+      <c r="C4169" t="s">
+        <v>885</v>
+      </c>
+      <c r="D4169" t="s">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="4170">
+      <c r="A4170" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4170" t="s">
+        <v>6813</v>
+      </c>
+      <c r="C4170" t="s">
+        <v>808</v>
+      </c>
+      <c r="D4170" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="4171">
+      <c r="A4171" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4171" t="s">
+        <v>6814</v>
+      </c>
+      <c r="C4171" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4171" t="s">
+        <v>6815</v>
+      </c>
+    </row>
+    <row r="4172">
+      <c r="A4172" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4172" t="s">
+        <v>6816</v>
+      </c>
+      <c r="C4172" t="s">
+        <v>4468</v>
+      </c>
+      <c r="D4172" t="s">
+        <v>6817</v>
+      </c>
+    </row>
+    <row r="4173">
+      <c r="A4173" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4173" t="s">
+        <v>6818</v>
+      </c>
+      <c r="C4173" t="s">
+        <v>693</v>
+      </c>
+      <c r="D4173" t="s">
+        <v>6819</v>
+      </c>
+    </row>
+    <row r="4174">
+      <c r="A4174" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4174" t="s">
+        <v>6820</v>
+      </c>
+      <c r="C4174" t="s">
+        <v>4465</v>
+      </c>
+      <c r="D4174" t="s">
+        <v>6821</v>
+      </c>
+    </row>
+    <row r="4175">
+      <c r="A4175" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4175" t="s">
+        <v>6822</v>
+      </c>
+      <c r="C4175" t="s">
+        <v>6568</v>
+      </c>
+      <c r="D4175" t="s">
+        <v>6823</v>
+      </c>
+    </row>
+    <row r="4176">
+      <c r="A4176" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4176" t="s">
+        <v>6824</v>
+      </c>
+      <c r="C4176" t="s">
+        <v>237</v>
+      </c>
+      <c r="D4176" t="s">
+        <v>6825</v>
+      </c>
+    </row>
+    <row r="4177">
+      <c r="A4177" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4177" t="s">
+        <v>6826</v>
+      </c>
+      <c r="C4177" t="s">
+        <v>6179</v>
+      </c>
+      <c r="D4177" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="4178">
+      <c r="A4178" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4178" t="s">
+        <v>6827</v>
+      </c>
+      <c r="C4178" t="s">
+        <v>724</v>
+      </c>
+      <c r="D4178" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4179">
+      <c r="A4179" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4179" t="s">
+        <v>6828</v>
+      </c>
+      <c r="C4179" t="s">
+        <v>811</v>
+      </c>
+      <c r="D4179" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="4180">
+      <c r="A4180" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4180" t="s">
+        <v>6829</v>
+      </c>
+      <c r="C4180" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D4180" t="s">
+        <v>2615</v>
+      </c>
+    </row>
+    <row r="4181">
+      <c r="A4181" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4181" t="s">
+        <v>6830</v>
+      </c>
+      <c r="C4181" t="s">
+        <v>907</v>
+      </c>
+      <c r="D4181" t="s">
+        <v>4756</v>
+      </c>
+    </row>
+    <row r="4182">
+      <c r="A4182" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4182" t="s">
+        <v>6831</v>
+      </c>
+      <c r="C4182" t="s">
+        <v>904</v>
+      </c>
+      <c r="D4182" t="s">
+        <v>6548</v>
+      </c>
+    </row>
+    <row r="4183">
+      <c r="A4183" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4183" t="s">
+        <v>6832</v>
+      </c>
+      <c r="C4183" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4183" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="4184">
+      <c r="A4184" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4184" t="s">
+        <v>6833</v>
+      </c>
+      <c r="C4184" t="s">
+        <v>5532</v>
+      </c>
+      <c r="D4184" t="s">
+        <v>6834</v>
+      </c>
+    </row>
+    <row r="4185">
+      <c r="A4185" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4185" t="s">
+        <v>6835</v>
+      </c>
+      <c r="C4185" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4185" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="4186">
+      <c r="A4186" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4186" t="s">
+        <v>6836</v>
+      </c>
+      <c r="C4186" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4186" t="s">
+        <v>5052</v>
+      </c>
+    </row>
+    <row r="4187">
+      <c r="A4187" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4187" t="s">
+        <v>6837</v>
+      </c>
+      <c r="C4187" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4187" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="4188">
+      <c r="A4188" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4188" t="s">
+        <v>6838</v>
+      </c>
+      <c r="C4188" t="s">
+        <v>606</v>
+      </c>
+      <c r="D4188" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="4189">
+      <c r="A4189" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4189" t="s">
+        <v>6839</v>
+      </c>
+      <c r="C4189" t="s">
+        <v>862</v>
+      </c>
+      <c r="D4189" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="4190">
+      <c r="A4190" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4190" t="s">
+        <v>6840</v>
+      </c>
+      <c r="C4190" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D4190" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="4191">
+      <c r="A4191" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4191" t="s">
+        <v>6841</v>
+      </c>
+      <c r="C4191" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4191" t="s">
+        <v>6842</v>
+      </c>
+    </row>
+    <row r="4192">
+      <c r="A4192" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4192" t="s">
+        <v>6843</v>
+      </c>
+      <c r="C4192" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4192" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="4193">
+      <c r="A4193" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4193" t="s">
+        <v>6844</v>
+      </c>
+      <c r="C4193" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D4193" t="s">
+        <v>6413</v>
+      </c>
+    </row>
+    <row r="4194">
+      <c r="A4194" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4194" t="s">
+        <v>6845</v>
+      </c>
+      <c r="C4194" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4194" t="s">
+        <v>6846</v>
+      </c>
+    </row>
+    <row r="4195">
+      <c r="A4195" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4195" t="s">
+        <v>6847</v>
+      </c>
+      <c r="C4195" t="s">
+        <v>368</v>
+      </c>
+      <c r="D4195" t="s">
+        <v>6848</v>
+      </c>
+    </row>
+    <row r="4196">
+      <c r="A4196" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4196" t="s">
+        <v>6849</v>
+      </c>
+      <c r="C4196" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4196" t="s">
+        <v>6850</v>
+      </c>
+    </row>
+    <row r="4197">
+      <c r="A4197" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4197" t="s">
+        <v>6851</v>
+      </c>
+      <c r="C4197" t="s">
+        <v>6852</v>
+      </c>
+      <c r="D4197" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="4198">
+      <c r="A4198" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4198" t="s">
+        <v>6853</v>
+      </c>
+      <c r="C4198" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4198" t="s">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="4199">
+      <c r="A4199" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4199" t="s">
+        <v>6854</v>
+      </c>
+      <c r="C4199" t="s">
+        <v>4448</v>
+      </c>
+      <c r="D4199" t="s">
+        <v>5609</v>
+      </c>
+    </row>
+    <row r="4200">
+      <c r="A4200" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4200" t="s">
+        <v>6855</v>
+      </c>
+      <c r="C4200" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4200" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="4201">
+      <c r="A4201" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4201" t="s">
+        <v>6856</v>
+      </c>
+      <c r="C4201" t="s">
+        <v>882</v>
+      </c>
+      <c r="D4201" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="4202">
+      <c r="A4202" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4202" t="s">
+        <v>6857</v>
+      </c>
+      <c r="C4202" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D4202" t="s">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="4203">
+      <c r="A4203" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4203" t="s">
+        <v>6858</v>
+      </c>
+      <c r="C4203" t="s">
+        <v>737</v>
+      </c>
+      <c r="D4203" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="4204">
+      <c r="A4204" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4204" t="s">
+        <v>6859</v>
+      </c>
+      <c r="C4204" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4204" t="s">
+        <v>6860</v>
+      </c>
+    </row>
+    <row r="4205">
+      <c r="A4205" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4205" t="s">
+        <v>6861</v>
+      </c>
+      <c r="C4205" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D4205" t="s">
+        <v>6862</v>
+      </c>
+    </row>
+    <row r="4206">
+      <c r="A4206" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4206" t="s">
+        <v>6863</v>
+      </c>
+      <c r="C4206" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4206" t="s">
+        <v>6864</v>
+      </c>
+    </row>
+    <row r="4207">
+      <c r="A4207" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4207" t="s">
+        <v>6865</v>
+      </c>
+      <c r="C4207" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4207" t="s">
+        <v>6574</v>
+      </c>
+    </row>
+    <row r="4208">
+      <c r="A4208" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4208" t="s">
+        <v>6866</v>
+      </c>
+      <c r="C4208" t="s">
+        <v>6867</v>
+      </c>
+      <c r="D4208" t="s">
+        <v>6868</v>
+      </c>
+    </row>
+    <row r="4209">
+      <c r="A4209" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4209" t="s">
+        <v>6869</v>
+      </c>
+      <c r="C4209" t="s">
+        <v>6519</v>
+      </c>
+      <c r="D4209" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="4210">
+      <c r="A4210" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4210" t="s">
+        <v>6870</v>
+      </c>
+      <c r="C4210" t="s">
+        <v>882</v>
+      </c>
+      <c r="D4210" t="s">
+        <v>6871</v>
+      </c>
+    </row>
+    <row r="4211">
+      <c r="A4211" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4211" t="s">
+        <v>6872</v>
+      </c>
+      <c r="C4211" t="s">
+        <v>764</v>
+      </c>
+      <c r="D4211" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="4212">
+      <c r="A4212" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4212" t="s">
+        <v>6873</v>
+      </c>
+      <c r="C4212" t="s">
+        <v>761</v>
+      </c>
+      <c r="D4212" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="4213">
+      <c r="A4213" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4213" t="s">
+        <v>6874</v>
+      </c>
+      <c r="C4213" t="s">
+        <v>764</v>
+      </c>
+      <c r="D4213" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="4214">
+      <c r="A4214" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4214" t="s">
+        <v>6875</v>
+      </c>
+      <c r="C4214" t="s">
+        <v>808</v>
+      </c>
+      <c r="D4214" t="s">
+        <v>5265</v>
+      </c>
+    </row>
+    <row r="4215">
+      <c r="A4215" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4215" t="s">
+        <v>6876</v>
+      </c>
+      <c r="C4215" t="s">
+        <v>821</v>
+      </c>
+      <c r="D4215" t="s">
+        <v>6877</v>
+      </c>
+    </row>
+    <row r="4216">
+      <c r="A4216" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4216" t="s">
+        <v>6878</v>
+      </c>
+      <c r="C4216" t="s">
+        <v>4148</v>
+      </c>
+      <c r="D4216" t="s">
+        <v>6025</v>
+      </c>
+    </row>
+    <row r="4217">
+      <c r="A4217" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4217" t="s">
+        <v>6879</v>
+      </c>
+      <c r="C4217" t="s">
+        <v>671</v>
+      </c>
+      <c r="D4217" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="4218">
+      <c r="A4218" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4218" t="s">
+        <v>6880</v>
+      </c>
+      <c r="C4218" t="s">
+        <v>5333</v>
+      </c>
+      <c r="D4218" t="s">
+        <v>6881</v>
+      </c>
+    </row>
+    <row r="4219">
+      <c r="A4219" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4219" t="s">
+        <v>6882</v>
+      </c>
+      <c r="C4219" t="s">
+        <v>6603</v>
+      </c>
+      <c r="D4219" t="s">
+        <v>6883</v>
+      </c>
+    </row>
+    <row r="4220">
+      <c r="A4220" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4220" t="s">
+        <v>6884</v>
+      </c>
+      <c r="C4220" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4220" t="s">
+        <v>5609</v>
+      </c>
+    </row>
+    <row r="4221">
+      <c r="A4221" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4221" t="s">
+        <v>6885</v>
+      </c>
+      <c r="C4221" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D4221" t="s">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="4222">
+      <c r="A4222" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4222" t="s">
+        <v>6886</v>
+      </c>
+      <c r="C4222" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D4222" t="s">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="4223">
+      <c r="A4223" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4223" t="s">
+        <v>6887</v>
+      </c>
+      <c r="C4223" t="s">
+        <v>756</v>
+      </c>
+      <c r="D4223" t="s">
+        <v>3729</v>
+      </c>
+    </row>
+    <row r="4224">
+      <c r="A4224" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4224" t="s">
+        <v>6888</v>
+      </c>
+      <c r="C4224" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D4224" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="4225">
+      <c r="A4225" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4225" t="s">
+        <v>6889</v>
+      </c>
+      <c r="C4225" t="s">
+        <v>828</v>
+      </c>
+      <c r="D4225" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4226">
+      <c r="A4226" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4226" t="s">
+        <v>6890</v>
+      </c>
+      <c r="C4226" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4226" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="4227">
+      <c r="A4227" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4227" t="s">
+        <v>6891</v>
+      </c>
+      <c r="C4227" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4227" t="s">
+        <v>4840</v>
+      </c>
+    </row>
+    <row r="4228">
+      <c r="A4228" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4228" t="s">
+        <v>6892</v>
+      </c>
+      <c r="C4228" t="s">
+        <v>4530</v>
+      </c>
+      <c r="D4228" t="s">
+        <v>6786</v>
+      </c>
+    </row>
+    <row r="4229">
+      <c r="A4229" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4229" t="s">
+        <v>6893</v>
+      </c>
+      <c r="C4229" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4229" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="4230">
+      <c r="A4230" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4230" t="s">
+        <v>6894</v>
+      </c>
+      <c r="C4230" t="s">
+        <v>6519</v>
+      </c>
+      <c r="D4230" t="s">
+        <v>6895</v>
+      </c>
+    </row>
+    <row r="4231">
+      <c r="A4231" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4231" t="s">
+        <v>6896</v>
+      </c>
+      <c r="C4231" t="s">
+        <v>563</v>
+      </c>
+      <c r="D4231" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="4232">
+      <c r="A4232" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4232" t="s">
+        <v>6897</v>
+      </c>
+      <c r="C4232" t="s">
+        <v>5382</v>
+      </c>
+      <c r="D4232" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="4233">
+      <c r="A4233" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4233" t="s">
+        <v>6898</v>
+      </c>
+      <c r="C4233" t="s">
+        <v>901</v>
+      </c>
+      <c r="D4233" t="s">
+        <v>6899</v>
+      </c>
+    </row>
+    <row r="4234">
+      <c r="A4234" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4234" t="s">
+        <v>6900</v>
+      </c>
+      <c r="C4234" t="s">
+        <v>3457</v>
+      </c>
+      <c r="D4234" t="s">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="4235">
+      <c r="A4235" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4235" t="s">
+        <v>6901</v>
+      </c>
+      <c r="C4235" t="s">
+        <v>892</v>
+      </c>
+      <c r="D4235" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="4236">
+      <c r="A4236" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4236" t="s">
+        <v>6902</v>
+      </c>
+      <c r="C4236" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4236" t="s">
+        <v>6903</v>
+      </c>
+    </row>
+    <row r="4237">
+      <c r="A4237" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4237" t="s">
+        <v>6904</v>
+      </c>
+      <c r="C4237" t="s">
+        <v>890</v>
+      </c>
+      <c r="D4237" t="s">
+        <v>6905</v>
+      </c>
+    </row>
+    <row r="4238">
+      <c r="A4238" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4238" t="s">
+        <v>6906</v>
+      </c>
+      <c r="C4238" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D4238" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="4239">
+      <c r="A4239" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4239" t="s">
+        <v>6907</v>
+      </c>
+      <c r="C4239" t="s">
+        <v>501</v>
+      </c>
+      <c r="D4239" t="s">
+        <v>6435</v>
+      </c>
+    </row>
+    <row r="4240">
+      <c r="A4240" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4240" t="s">
+        <v>6908</v>
+      </c>
+      <c r="C4240" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4240" t="s">
+        <v>6909</v>
+      </c>
+    </row>
+    <row r="4241">
+      <c r="A4241" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4241" t="s">
+        <v>6910</v>
+      </c>
+      <c r="C4241" t="s">
+        <v>4448</v>
+      </c>
+      <c r="D4241" t="s">
+        <v>6911</v>
+      </c>
+    </row>
+    <row r="4242">
+      <c r="A4242" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4242" t="s">
+        <v>6912</v>
+      </c>
+      <c r="C4242" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4242" t="s">
+        <v>6913</v>
+      </c>
+    </row>
+    <row r="4243">
+      <c r="A4243" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4243" t="s">
+        <v>6914</v>
+      </c>
+      <c r="C4243" t="s">
+        <v>4448</v>
+      </c>
+      <c r="D4243" t="s">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="4244">
+      <c r="A4244" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4244" t="s">
+        <v>6915</v>
+      </c>
+      <c r="C4244" t="s">
+        <v>862</v>
+      </c>
+      <c r="D4244" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="4245">
+      <c r="A4245" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4245" t="s">
+        <v>6916</v>
+      </c>
+      <c r="C4245" t="s">
+        <v>5771</v>
+      </c>
+      <c r="D4245" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="4246">
+      <c r="A4246" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4246" t="s">
+        <v>6917</v>
+      </c>
+      <c r="C4246" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D4246" t="s">
+        <v>6918</v>
+      </c>
+    </row>
+    <row r="4247">
+      <c r="A4247" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4247" t="s">
+        <v>6919</v>
+      </c>
+      <c r="C4247" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D4247" t="s">
+        <v>6920</v>
+      </c>
+    </row>
+    <row r="4248">
+      <c r="A4248" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4248" t="s">
+        <v>6921</v>
+      </c>
+      <c r="C4248" t="s">
+        <v>4448</v>
+      </c>
+      <c r="D4248" t="s">
+        <v>6922</v>
+      </c>
+    </row>
+    <row r="4249">
+      <c r="A4249" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4249" t="s">
+        <v>6923</v>
+      </c>
+      <c r="C4249" t="s">
+        <v>606</v>
+      </c>
+      <c r="D4249" t="s">
+        <v>6924</v>
+      </c>
+    </row>
+    <row r="4250">
+      <c r="A4250" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4250" t="s">
+        <v>6925</v>
+      </c>
+      <c r="C4250" t="s">
+        <v>6047</v>
+      </c>
+      <c r="D4250" t="s">
+        <v>6926</v>
+      </c>
+    </row>
+    <row r="4251">
+      <c r="A4251" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4251" t="s">
+        <v>6927</v>
+      </c>
+      <c r="C4251" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4251" t="s">
+        <v>6928</v>
+      </c>
+    </row>
+    <row r="4252">
+      <c r="A4252" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4252" t="s">
+        <v>6929</v>
+      </c>
+      <c r="C4252" t="s">
+        <v>693</v>
+      </c>
+      <c r="D4252" t="s">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="4253">
+      <c r="A4253" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4253" t="s">
+        <v>6930</v>
+      </c>
+      <c r="C4253" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4253" t="s">
+        <v>6877</v>
+      </c>
+    </row>
+    <row r="4254">
+      <c r="A4254" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4254" t="s">
+        <v>6931</v>
+      </c>
+      <c r="C4254" t="s">
+        <v>5565</v>
+      </c>
+      <c r="D4254" t="s">
+        <v>6932</v>
+      </c>
+    </row>
+    <row r="4255">
+      <c r="A4255" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4255" t="s">
+        <v>6933</v>
+      </c>
+      <c r="C4255" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D4255" t="s">
+        <v>4756</v>
+      </c>
+    </row>
+    <row r="4256">
+      <c r="A4256" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4256" t="s">
+        <v>6934</v>
+      </c>
+      <c r="C4256" t="s">
+        <v>879</v>
+      </c>
+      <c r="D4256" t="s">
+        <v>2306</v>
+      </c>
+    </row>
+    <row r="4257">
+      <c r="A4257" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4257" t="s">
+        <v>6935</v>
+      </c>
+      <c r="C4257" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4257" t="s">
+        <v>6746</v>
+      </c>
+    </row>
+    <row r="4258">
+      <c r="A4258" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4258" t="s">
+        <v>6936</v>
+      </c>
+      <c r="C4258" t="s">
+        <v>460</v>
+      </c>
+      <c r="D4258" t="s">
+        <v>6913</v>
+      </c>
+    </row>
+    <row r="4259">
+      <c r="A4259" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4259" t="s">
+        <v>6937</v>
+      </c>
+      <c r="C4259" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4259" t="s">
+        <v>6938</v>
+      </c>
+    </row>
+    <row r="4260">
+      <c r="A4260" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4260" t="s">
+        <v>6939</v>
+      </c>
+      <c r="C4260" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4260" t="s">
+        <v>6940</v>
+      </c>
+    </row>
+    <row r="4261">
+      <c r="A4261" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4261" t="s">
+        <v>6941</v>
+      </c>
+      <c r="C4261" t="s">
+        <v>6942</v>
+      </c>
+      <c r="D4261" t="s">
+        <v>6943</v>
+      </c>
+    </row>
+    <row r="4262">
+      <c r="A4262" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4262" t="s">
+        <v>6944</v>
+      </c>
+      <c r="C4262" t="s">
+        <v>526</v>
+      </c>
+      <c r="D4262" t="s">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="4263">
+      <c r="A4263" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4263" t="s">
+        <v>6945</v>
+      </c>
+      <c r="C4263" t="s">
+        <v>936</v>
+      </c>
+      <c r="D4263" t="s">
+        <v>5927</v>
+      </c>
+    </row>
+    <row r="4264">
+      <c r="A4264" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4264" t="s">
+        <v>6946</v>
+      </c>
+      <c r="C4264" t="s">
+        <v>724</v>
+      </c>
+      <c r="D4264" t="s">
+        <v>5497</v>
+      </c>
+    </row>
+    <row r="4265">
+      <c r="A4265" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4265" t="s">
+        <v>6947</v>
+      </c>
+      <c r="C4265" t="s">
+        <v>5771</v>
+      </c>
+      <c r="D4265" t="s">
+        <v>6948</v>
+      </c>
+    </row>
+    <row r="4266">
+      <c r="A4266" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4266" t="s">
+        <v>6949</v>
+      </c>
+      <c r="C4266" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4266" t="s">
+        <v>6950</v>
+      </c>
+    </row>
+    <row r="4267">
+      <c r="A4267" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4267" t="s">
+        <v>6951</v>
+      </c>
+      <c r="C4267" t="s">
+        <v>363</v>
+      </c>
+      <c r="D4267" t="s">
+        <v>6952</v>
+      </c>
+    </row>
+    <row r="4268">
+      <c r="A4268" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4268" t="s">
+        <v>6953</v>
+      </c>
+      <c r="C4268" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4268" t="s">
+        <v>5869</v>
+      </c>
+    </row>
+    <row r="4269">
+      <c r="A4269" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4269" t="s">
+        <v>6954</v>
+      </c>
+      <c r="C4269" t="s">
+        <v>463</v>
+      </c>
+      <c r="D4269" t="s">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="4270">
+      <c r="A4270" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4270" t="s">
+        <v>6955</v>
+      </c>
+      <c r="C4270" t="s">
+        <v>705</v>
+      </c>
+      <c r="D4270" t="s">
+        <v>3079</v>
+      </c>
+    </row>
+    <row r="4271">
+      <c r="A4271" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4271" t="s">
+        <v>6956</v>
+      </c>
+      <c r="C4271" t="s">
+        <v>811</v>
+      </c>
+      <c r="D4271" t="s">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="4272">
+      <c r="A4272" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4272" t="s">
+        <v>6957</v>
+      </c>
+      <c r="C4272" t="s">
+        <v>729</v>
+      </c>
+      <c r="D4272" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="4273">
+      <c r="A4273" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4273" t="s">
+        <v>6958</v>
+      </c>
+      <c r="C4273" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4273" t="s">
+        <v>5069</v>
+      </c>
+    </row>
+    <row r="4274">
+      <c r="A4274" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4274" t="s">
+        <v>6959</v>
+      </c>
+      <c r="C4274" t="s">
+        <v>5102</v>
+      </c>
+      <c r="D4274" t="s">
+        <v>6960</v>
+      </c>
+    </row>
+    <row r="4275">
+      <c r="A4275" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4275" t="s">
+        <v>6961</v>
+      </c>
+      <c r="C4275" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4275" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="4276">
+      <c r="A4276" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4276" t="s">
+        <v>6962</v>
+      </c>
+      <c r="C4276" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4276" t="s">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="4277">
+      <c r="A4277" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4277" t="s">
+        <v>6963</v>
+      </c>
+      <c r="C4277" t="s">
+        <v>808</v>
+      </c>
+      <c r="D4277" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="4278">
+      <c r="A4278" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4278" t="s">
+        <v>6964</v>
+      </c>
+      <c r="C4278" t="s">
+        <v>892</v>
+      </c>
+      <c r="D4278" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="4279">
+      <c r="A4279" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4279" t="s">
+        <v>6965</v>
+      </c>
+      <c r="C4279" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4279" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="4280">
+      <c r="A4280" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4280" t="s">
+        <v>6966</v>
+      </c>
+      <c r="C4280" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4280" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="4281">
+      <c r="A4281" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4281" t="s">
+        <v>6967</v>
+      </c>
+      <c r="C4281" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D4281" t="s">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="4282">
+      <c r="A4282" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4282" t="s">
+        <v>6968</v>
+      </c>
+      <c r="C4282" t="s">
+        <v>737</v>
+      </c>
+      <c r="D4282" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="4283">
+      <c r="A4283" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4283" t="s">
+        <v>6969</v>
+      </c>
+      <c r="C4283" t="s">
+        <v>882</v>
+      </c>
+      <c r="D4283" t="s">
+        <v>6970</v>
+      </c>
+    </row>
+    <row r="4284">
+      <c r="A4284" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4284" t="s">
+        <v>6971</v>
+      </c>
+      <c r="C4284" t="s">
+        <v>904</v>
+      </c>
+      <c r="D4284" t="s">
+        <v>6972</v>
+      </c>
+    </row>
+    <row r="4285">
+      <c r="A4285" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4285" t="s">
+        <v>6973</v>
+      </c>
+      <c r="C4285" t="s">
+        <v>761</v>
+      </c>
+      <c r="D4285" t="s">
+        <v>6974</v>
+      </c>
+    </row>
+    <row r="4286">
+      <c r="A4286" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4286" t="s">
+        <v>6975</v>
+      </c>
+      <c r="C4286" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D4286" t="s">
+        <v>6976</v>
+      </c>
+    </row>
+    <row r="4287">
+      <c r="A4287" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4287" t="s">
+        <v>6977</v>
+      </c>
+      <c r="C4287" t="s">
+        <v>759</v>
+      </c>
+      <c r="D4287" t="s">
+        <v>6978</v>
+      </c>
+    </row>
+    <row r="4288">
+      <c r="A4288" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4288" t="s">
+        <v>6979</v>
+      </c>
+      <c r="C4288" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D4288" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="4289">
+      <c r="A4289" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4289" t="s">
+        <v>6980</v>
+      </c>
+      <c r="C4289" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D4289" t="s">
+        <v>6981</v>
+      </c>
+    </row>
+    <row r="4290">
+      <c r="A4290" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4290" t="s">
+        <v>6982</v>
+      </c>
+      <c r="C4290" t="s">
+        <v>825</v>
+      </c>
+      <c r="D4290" t="s">
+        <v>4717</v>
+      </c>
+    </row>
+    <row r="4291">
+      <c r="A4291" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4291" t="s">
+        <v>6983</v>
+      </c>
+      <c r="C4291" t="s">
+        <v>1504</v>
+      </c>
+      <c r="D4291" t="s">
+        <v>5230</v>
+      </c>
+    </row>
+    <row r="4292">
+      <c r="A4292" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4292" t="s">
+        <v>6984</v>
+      </c>
+      <c r="C4292" t="s">
+        <v>879</v>
+      </c>
+      <c r="D4292" t="s">
+        <v>5616</v>
+      </c>
+    </row>
+    <row r="4293">
+      <c r="A4293" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4293" t="s">
+        <v>6985</v>
+      </c>
+      <c r="C4293" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4293" t="s">
+        <v>3877</v>
+      </c>
+    </row>
+    <row r="4294">
+      <c r="A4294" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4294" t="s">
+        <v>6986</v>
+      </c>
+      <c r="C4294" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4294" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="4295">
+      <c r="A4295" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4295" t="s">
+        <v>6987</v>
+      </c>
+      <c r="C4295" t="s">
+        <v>811</v>
+      </c>
+      <c r="D4295" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="4296">
+      <c r="A4296" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4296" t="s">
+        <v>6988</v>
+      </c>
+      <c r="C4296" t="s">
+        <v>726</v>
+      </c>
+      <c r="D4296" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="4297">
+      <c r="A4297" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4297" t="s">
+        <v>6989</v>
+      </c>
+      <c r="C4297" t="s">
+        <v>729</v>
+      </c>
+      <c r="D4297" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4298">
+      <c r="A4298" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4298" t="s">
+        <v>6990</v>
+      </c>
+      <c r="C4298" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D4298" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="4299">
+      <c r="A4299" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4299" t="s">
+        <v>6991</v>
+      </c>
+      <c r="C4299" t="s">
+        <v>726</v>
+      </c>
+      <c r="D4299" t="s">
+        <v>6992</v>
+      </c>
+    </row>
+    <row r="4300">
+      <c r="A4300" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4300" t="s">
+        <v>6993</v>
+      </c>
+      <c r="C4300" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4300" t="s">
+        <v>6994</v>
+      </c>
+    </row>
+    <row r="4301">
+      <c r="A4301" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4301" t="s">
+        <v>6995</v>
+      </c>
+      <c r="C4301" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4301" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="4302">
+      <c r="A4302" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4302" t="s">
+        <v>6996</v>
+      </c>
+      <c r="C4302" t="s">
+        <v>371</v>
+      </c>
+      <c r="D4302" t="s">
+        <v>6997</v>
+      </c>
+    </row>
+    <row r="4303">
+      <c r="A4303" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4303" t="s">
+        <v>6998</v>
+      </c>
+      <c r="C4303" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4303" t="s">
+        <v>5394</v>
+      </c>
+    </row>
+    <row r="4304">
+      <c r="A4304" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4304" t="s">
+        <v>6999</v>
+      </c>
+      <c r="C4304" t="s">
+        <v>5451</v>
+      </c>
+      <c r="D4304" t="s">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="4305">
+      <c r="A4305" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4305" t="s">
+        <v>7000</v>
+      </c>
+      <c r="C4305" t="s">
+        <v>708</v>
+      </c>
+      <c r="D4305" t="s">
+        <v>3391</v>
+      </c>
+    </row>
+    <row r="4306">
+      <c r="A4306" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4306" t="s">
+        <v>7001</v>
+      </c>
+      <c r="C4306" t="s">
+        <v>726</v>
+      </c>
+      <c r="D4306" t="s">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="4307">
+      <c r="A4307" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4307" t="s">
+        <v>7002</v>
+      </c>
+      <c r="C4307" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D4307" t="s">
+        <v>2496</v>
+      </c>
+    </row>
+    <row r="4308">
+      <c r="A4308" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4308" t="s">
+        <v>7003</v>
+      </c>
+      <c r="C4308" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D4308" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="4309">
+      <c r="A4309" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4309" t="s">
+        <v>7004</v>
+      </c>
+      <c r="C4309" t="s">
+        <v>5298</v>
+      </c>
+      <c r="D4309" t="s">
+        <v>7005</v>
+      </c>
+    </row>
+    <row r="4310">
+      <c r="A4310" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4310" t="s">
+        <v>7006</v>
+      </c>
+      <c r="C4310" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4310" t="s">
+        <v>7007</v>
+      </c>
+    </row>
+    <row r="4311">
+      <c r="A4311" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4311" t="s">
+        <v>7008</v>
+      </c>
+      <c r="C4311" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4311" t="s">
+        <v>7009</v>
+      </c>
+    </row>
+    <row r="4312">
+      <c r="A4312" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4312" t="s">
+        <v>7010</v>
+      </c>
+      <c r="C4312" t="s">
+        <v>7011</v>
+      </c>
+      <c r="D4312" t="s">
+        <v>7012</v>
+      </c>
+    </row>
+    <row r="4313">
+      <c r="A4313" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4313" t="s">
+        <v>7013</v>
+      </c>
+      <c r="C4313" t="s">
+        <v>6078</v>
+      </c>
+      <c r="D4313" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="4314">
+      <c r="A4314" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4314" t="s">
+        <v>7014</v>
+      </c>
+      <c r="C4314" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4314" t="s">
+        <v>7015</v>
+      </c>
+    </row>
+    <row r="4315">
+      <c r="A4315" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4315" t="s">
+        <v>7016</v>
+      </c>
+      <c r="C4315" t="s">
+        <v>740</v>
+      </c>
+      <c r="D4315" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="4316">
+      <c r="A4316" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4316" t="s">
+        <v>7017</v>
+      </c>
+      <c r="C4316" t="s">
+        <v>747</v>
+      </c>
+      <c r="D4316" t="s">
+        <v>7018</v>
+      </c>
+    </row>
+    <row r="4317">
+      <c r="A4317" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4317" t="s">
+        <v>7019</v>
+      </c>
+      <c r="C4317" t="s">
+        <v>729</v>
+      </c>
+      <c r="D4317" t="s">
+        <v>5533</v>
+      </c>
+    </row>
+    <row r="4318">
+      <c r="A4318" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4318" t="s">
+        <v>7020</v>
+      </c>
+      <c r="C4318" t="s">
+        <v>821</v>
+      </c>
+      <c r="D4318" t="s">
+        <v>5820</v>
+      </c>
+    </row>
+    <row r="4319">
+      <c r="A4319" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4319" t="s">
+        <v>7021</v>
+      </c>
+      <c r="C4319" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4319" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="4320">
+      <c r="A4320" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4320" t="s">
+        <v>7022</v>
+      </c>
+      <c r="C4320" t="s">
+        <v>825</v>
+      </c>
+      <c r="D4320" t="s">
+        <v>7023</v>
+      </c>
+    </row>
+    <row r="4321">
+      <c r="A4321" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4321" t="s">
+        <v>7024</v>
+      </c>
+      <c r="C4321" t="s">
+        <v>705</v>
+      </c>
+      <c r="D4321" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="4322">
+      <c r="A4322" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4322" t="s">
+        <v>7025</v>
+      </c>
+      <c r="C4322" t="s">
+        <v>146</v>
+      </c>
+      <c r="D4322" t="s">
+        <v>7026</v>
+      </c>
+    </row>
+    <row r="4323">
+      <c r="A4323" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4323" t="s">
+        <v>7027</v>
+      </c>
+      <c r="C4323" t="s">
+        <v>371</v>
+      </c>
+      <c r="D4323" t="s">
+        <v>7028</v>
+      </c>
+    </row>
+    <row r="4324">
+      <c r="A4324" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4324" t="s">
+        <v>7029</v>
+      </c>
+      <c r="C4324" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4324" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="4325">
+      <c r="A4325" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4325" t="s">
+        <v>7030</v>
+      </c>
+      <c r="C4325" t="s">
+        <v>702</v>
+      </c>
+      <c r="D4325" t="s">
+        <v>4934</v>
+      </c>
+    </row>
+    <row r="4326">
+      <c r="A4326" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4326" t="s">
+        <v>7031</v>
+      </c>
+      <c r="C4326" t="s">
+        <v>5771</v>
+      </c>
+      <c r="D4326" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4327">
+      <c r="A4327" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4327" t="s">
+        <v>7032</v>
+      </c>
+      <c r="C4327" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D4327" t="s">
+        <v>7033</v>
+      </c>
+    </row>
+    <row r="4328">
+      <c r="A4328" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4328" t="s">
+        <v>7034</v>
+      </c>
+      <c r="C4328" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D4328" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4329">
+      <c r="A4329" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4329" t="s">
+        <v>7035</v>
+      </c>
+      <c r="C4329" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4329" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="4330">
+      <c r="A4330" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4330" t="s">
+        <v>7036</v>
+      </c>
+      <c r="C4330" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4330" t="s">
+        <v>5954</v>
+      </c>
+    </row>
+    <row r="4331">
+      <c r="A4331" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4331" t="s">
+        <v>7037</v>
+      </c>
+      <c r="C4331" t="s">
+        <v>5725</v>
+      </c>
+      <c r="D4331" t="s">
+        <v>7038</v>
+      </c>
+    </row>
+    <row r="4332">
+      <c r="A4332" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4332" t="s">
+        <v>7039</v>
+      </c>
+      <c r="C4332" t="s">
+        <v>443</v>
+      </c>
+      <c r="D4332" t="s">
+        <v>7040</v>
+      </c>
+    </row>
+    <row r="4333">
+      <c r="A4333" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4333" t="s">
+        <v>7041</v>
+      </c>
+      <c r="C4333" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4333" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4334">
+      <c r="A4334" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4334" t="s">
+        <v>7042</v>
+      </c>
+      <c r="C4334" t="s">
+        <v>606</v>
+      </c>
+      <c r="D4334" t="s">
+        <v>3559</v>
+      </c>
+    </row>
+    <row r="4335">
+      <c r="A4335" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4335" t="s">
+        <v>7043</v>
+      </c>
+      <c r="C4335" t="s">
+        <v>4950</v>
+      </c>
+      <c r="D4335" t="s">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="4336">
+      <c r="A4336" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4336" t="s">
+        <v>7044</v>
+      </c>
+      <c r="C4336" t="s">
+        <v>5298</v>
+      </c>
+      <c r="D4336" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4337">
+      <c r="A4337" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4337" t="s">
+        <v>7045</v>
+      </c>
+      <c r="C4337" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D4337" t="s">
+        <v>2830</v>
+      </c>
+    </row>
+    <row r="4338">
+      <c r="A4338" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4338" t="s">
+        <v>7046</v>
+      </c>
+      <c r="C4338" t="s">
+        <v>4148</v>
+      </c>
+      <c r="D4338" t="s">
+        <v>4592</v>
+      </c>
+    </row>
+    <row r="4339">
+      <c r="A4339" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4339" t="s">
+        <v>7047</v>
+      </c>
+      <c r="C4339" t="s">
+        <v>939</v>
+      </c>
+      <c r="D4339" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4340">
+      <c r="A4340" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4340" t="s">
+        <v>7048</v>
+      </c>
+      <c r="C4340" t="s">
+        <v>705</v>
+      </c>
+      <c r="D4340" t="s">
+        <v>7049</v>
+      </c>
+    </row>
+    <row r="4341">
+      <c r="A4341" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4341" t="s">
+        <v>7050</v>
+      </c>
+      <c r="C4341" t="s">
+        <v>5779</v>
+      </c>
+      <c r="D4341" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="4342">
+      <c r="A4342" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4342" t="s">
+        <v>7051</v>
+      </c>
+      <c r="C4342" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D4342" t="s">
+        <v>7052</v>
+      </c>
+    </row>
+    <row r="4343">
+      <c r="A4343" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4343" t="s">
+        <v>7053</v>
+      </c>
+      <c r="C4343" t="s">
+        <v>7054</v>
+      </c>
+      <c r="D4343" t="s">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="4344">
+      <c r="A4344" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4344" t="s">
+        <v>7055</v>
+      </c>
+      <c r="C4344" t="s">
+        <v>526</v>
+      </c>
+      <c r="D4344" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="4345">
+      <c r="A4345" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4345" t="s">
+        <v>7056</v>
+      </c>
+      <c r="C4345" t="s">
+        <v>5363</v>
+      </c>
+      <c r="D4345" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="4346">
+      <c r="A4346" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4346" t="s">
+        <v>7057</v>
+      </c>
+      <c r="C4346" t="s">
+        <v>5565</v>
+      </c>
+      <c r="D4346" t="s">
+        <v>5839</v>
+      </c>
+    </row>
+    <row r="4347">
+      <c r="A4347" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4347" t="s">
+        <v>7058</v>
+      </c>
+      <c r="C4347" t="s">
+        <v>702</v>
+      </c>
+      <c r="D4347" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="4348">
+      <c r="A4348" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4348" t="s">
+        <v>7059</v>
+      </c>
+      <c r="C4348" t="s">
+        <v>747</v>
+      </c>
+      <c r="D4348" t="s">
+        <v>6211</v>
+      </c>
+    </row>
+    <row r="4349">
+      <c r="A4349" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4349" t="s">
+        <v>7060</v>
+      </c>
+      <c r="C4349" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D4349" t="s">
+        <v>6420</v>
+      </c>
+    </row>
+    <row r="4350">
+      <c r="A4350" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4350" t="s">
+        <v>7061</v>
+      </c>
+      <c r="C4350" t="s">
+        <v>939</v>
+      </c>
+      <c r="D4350" t="s">
+        <v>5494</v>
+      </c>
+    </row>
+    <row r="4351">
+      <c r="A4351" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4351" t="s">
+        <v>7062</v>
+      </c>
+      <c r="C4351" t="s">
+        <v>814</v>
+      </c>
+      <c r="D4351" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="4352">
+      <c r="A4352" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4352" t="s">
+        <v>7063</v>
+      </c>
+      <c r="C4352" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4352" t="s">
+        <v>6328</v>
+      </c>
+    </row>
+    <row r="4353">
+      <c r="A4353" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4353" t="s">
+        <v>7064</v>
+      </c>
+      <c r="C4353" t="s">
+        <v>116</v>
+      </c>
+      <c r="D4353" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="4354">
+      <c r="A4354" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4354" t="s">
+        <v>7065</v>
+      </c>
+      <c r="C4354" t="s">
+        <v>6762</v>
+      </c>
+      <c r="D4354" t="s">
+        <v>6681</v>
+      </c>
+    </row>
+    <row r="4355">
+      <c r="A4355" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4355" t="s">
+        <v>7066</v>
+      </c>
+      <c r="C4355" t="s">
+        <v>5368</v>
+      </c>
+      <c r="D4355" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="4356">
+      <c r="A4356" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4356" t="s">
+        <v>7067</v>
+      </c>
+      <c r="C4356" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4356" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="4357">
+      <c r="A4357" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4357" t="s">
+        <v>7068</v>
+      </c>
+      <c r="C4357" t="s">
+        <v>939</v>
+      </c>
+      <c r="D4357" t="s">
+        <v>5345</v>
+      </c>
+    </row>
+    <row r="4358">
+      <c r="A4358" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4358" t="s">
+        <v>7069</v>
+      </c>
+      <c r="C4358" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D4358" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="4359">
+      <c r="A4359" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4359" t="s">
+        <v>7070</v>
+      </c>
+      <c r="C4359" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D4359" t="s">
+        <v>5855</v>
+      </c>
+    </row>
+    <row r="4360">
+      <c r="A4360" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4360" t="s">
+        <v>7071</v>
+      </c>
+      <c r="C4360" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4360" t="s">
+        <v>6471</v>
+      </c>
+    </row>
+    <row r="4361">
+      <c r="A4361" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4361" t="s">
+        <v>7072</v>
+      </c>
+      <c r="C4361" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4361" t="s">
+        <v>7073</v>
+      </c>
+    </row>
+    <row r="4362">
+      <c r="A4362" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4362" t="s">
+        <v>7074</v>
+      </c>
+      <c r="C4362" t="s">
+        <v>6133</v>
+      </c>
+      <c r="D4362" t="s">
+        <v>7075</v>
+      </c>
+    </row>
+    <row r="4363">
+      <c r="A4363" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4363" t="s">
+        <v>7076</v>
+      </c>
+      <c r="C4363" t="s">
+        <v>715</v>
+      </c>
+      <c r="D4363" t="s">
+        <v>5449</v>
+      </c>
+    </row>
+    <row r="4364">
+      <c r="A4364" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4364" t="s">
+        <v>7077</v>
+      </c>
+      <c r="C4364" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4364" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="4365">
+      <c r="A4365" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4365" t="s">
+        <v>7078</v>
+      </c>
+      <c r="C4365" t="s">
+        <v>371</v>
+      </c>
+      <c r="D4365" t="s">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="4366">
+      <c r="A4366" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4366" t="s">
+        <v>7079</v>
+      </c>
+      <c r="C4366" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4366" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4367">
+      <c r="A4367" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4367" t="s">
+        <v>7080</v>
+      </c>
+      <c r="C4367" t="s">
+        <v>4950</v>
+      </c>
+      <c r="D4367" t="s">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="4368">
+      <c r="A4368" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4368" t="s">
+        <v>7081</v>
+      </c>
+      <c r="C4368" t="s">
+        <v>5382</v>
+      </c>
+      <c r="D4368" t="s">
+        <v>3411</v>
+      </c>
+    </row>
+    <row r="4369">
+      <c r="A4369" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4369" t="s">
+        <v>7082</v>
+      </c>
+      <c r="C4369" t="s">
+        <v>1249</v>
+      </c>
+      <c r="D4369" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="4370">
+      <c r="A4370" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4370" t="s">
+        <v>7083</v>
+      </c>
+      <c r="C4370" t="s">
+        <v>876</v>
+      </c>
+      <c r="D4370" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="4371">
+      <c r="A4371" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4371" t="s">
+        <v>7084</v>
+      </c>
+      <c r="C4371" t="s">
+        <v>6469</v>
+      </c>
+      <c r="D4371" t="s">
+        <v>6974</v>
+      </c>
+    </row>
+    <row r="4372">
+      <c r="A4372" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4372" t="s">
+        <v>7085</v>
+      </c>
+      <c r="C4372" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4372" t="s">
+        <v>7086</v>
+      </c>
+    </row>
+    <row r="4373">
+      <c r="A4373" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4373" t="s">
+        <v>7087</v>
+      </c>
+      <c r="C4373" t="s">
+        <v>360</v>
+      </c>
+      <c r="D4373" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="4374">
+      <c r="A4374" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4374" t="s">
+        <v>7088</v>
+      </c>
+      <c r="C4374" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4374" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="4375">
+      <c r="A4375" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4375" t="s">
+        <v>7089</v>
+      </c>
+      <c r="C4375" t="s">
+        <v>516</v>
+      </c>
+      <c r="D4375" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="4376">
+      <c r="A4376" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4376" t="s">
+        <v>7090</v>
+      </c>
+      <c r="C4376" t="s">
+        <v>4465</v>
+      </c>
+      <c r="D4376" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="4377">
+      <c r="A4377" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4377" t="s">
+        <v>7091</v>
+      </c>
+      <c r="C4377" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4377" t="s">
+        <v>4703</v>
+      </c>
+    </row>
+    <row r="4378">
+      <c r="A4378" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4378" t="s">
+        <v>7092</v>
+      </c>
+      <c r="C4378" t="s">
+        <v>7093</v>
+      </c>
+      <c r="D4378" t="s">
+        <v>6269</v>
+      </c>
+    </row>
+    <row r="4379">
+      <c r="A4379" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4379" t="s">
+        <v>7094</v>
+      </c>
+      <c r="C4379" t="s">
+        <v>839</v>
+      </c>
+      <c r="D4379" t="s">
+        <v>5494</v>
+      </c>
+    </row>
+    <row r="4380">
+      <c r="A4380" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4380" t="s">
+        <v>7095</v>
+      </c>
+      <c r="C4380" t="s">
+        <v>5565</v>
+      </c>
+      <c r="D4380" t="s">
+        <v>7096</v>
+      </c>
+    </row>
+    <row r="4381">
+      <c r="A4381" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4381" t="s">
+        <v>7097</v>
+      </c>
+      <c r="C4381" t="s">
+        <v>344</v>
+      </c>
+      <c r="D4381" t="s">
+        <v>6913</v>
+      </c>
+    </row>
+    <row r="4382">
+      <c r="A4382" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4382" t="s">
+        <v>7098</v>
+      </c>
+      <c r="C4382" t="s">
+        <v>308</v>
+      </c>
+      <c r="D4382" t="s">
+        <v>7099</v>
+      </c>
+    </row>
+    <row r="4383">
+      <c r="A4383" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4383" t="s">
+        <v>7100</v>
+      </c>
+      <c r="C4383" t="s">
+        <v>563</v>
+      </c>
+      <c r="D4383" t="s">
+        <v>7101</v>
+      </c>
+    </row>
+    <row r="4384">
+      <c r="A4384" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4384" t="s">
+        <v>7102</v>
+      </c>
+      <c r="C4384" t="s">
+        <v>7103</v>
+      </c>
+      <c r="D4384" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="4385">
+      <c r="A4385" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4385" t="s">
+        <v>7104</v>
+      </c>
+      <c r="C4385" t="s">
+        <v>6488</v>
+      </c>
+      <c r="D4385" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4386">
+      <c r="A4386" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4386" t="s">
+        <v>7105</v>
+      </c>
+      <c r="C4386" t="s">
+        <v>5779</v>
+      </c>
+      <c r="D4386" t="s">
+        <v>7106</v>
+      </c>
+    </row>
+    <row r="4387">
+      <c r="A4387" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4387" t="s">
+        <v>7107</v>
+      </c>
+      <c r="C4387" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4387" t="s">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="4388">
+      <c r="A4388" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4388" t="s">
+        <v>7108</v>
+      </c>
+      <c r="C4388" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4388" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4389">
+      <c r="A4389" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4389" t="s">
+        <v>7109</v>
+      </c>
+      <c r="C4389" t="s">
+        <v>879</v>
+      </c>
+      <c r="D4389" t="s">
+        <v>7110</v>
+      </c>
+    </row>
+    <row r="4390">
+      <c r="A4390" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4390" t="s">
+        <v>7111</v>
+      </c>
+      <c r="C4390" t="s">
+        <v>737</v>
+      </c>
+      <c r="D4390" t="s">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="4391">
+      <c r="A4391" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4391" t="s">
+        <v>7112</v>
+      </c>
+      <c r="C4391" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D4391" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="4392">
+      <c r="A4392" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4392" t="s">
+        <v>7113</v>
+      </c>
+      <c r="C4392" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D4392" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="4393">
+      <c r="A4393" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4393" t="s">
+        <v>7114</v>
+      </c>
+      <c r="C4393" t="s">
+        <v>671</v>
+      </c>
+      <c r="D4393" t="s">
+        <v>7115</v>
+      </c>
+    </row>
+    <row r="4394">
+      <c r="A4394" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4394" t="s">
+        <v>7116</v>
+      </c>
+      <c r="C4394" t="s">
+        <v>740</v>
+      </c>
+      <c r="D4394" t="s">
+        <v>7117</v>
+      </c>
+    </row>
+    <row r="4395">
+      <c r="A4395" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4395" t="s">
+        <v>7118</v>
+      </c>
+      <c r="C4395" t="s">
+        <v>6078</v>
+      </c>
+      <c r="D4395" t="s">
+        <v>6155</v>
+      </c>
+    </row>
+    <row r="4396">
+      <c r="A4396" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4396" t="s">
+        <v>7119</v>
+      </c>
+      <c r="C4396" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4396" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="4397">
+      <c r="A4397" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4397" t="s">
+        <v>7120</v>
+      </c>
+      <c r="C4397" t="s">
+        <v>375</v>
+      </c>
+      <c r="D4397" t="s">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="4398">
+      <c r="A4398" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4398" t="s">
+        <v>7121</v>
+      </c>
+      <c r="C4398" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4398" t="s">
+        <v>1413</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
